--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB017BE1-C001-4E76-B180-90B3395C1B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6389B77A-2D71-4F6E-8083-6EDF87C45BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>Execute</t>
   </si>
@@ -121,9 +121,6 @@
     <t>test_psps_ui_defaultmanagement_positive_e2e.py</t>
   </si>
   <si>
-    <t>test_psps_ui_defaultmanagement_negative_e2e.py</t>
-  </si>
-  <si>
     <t>PSPSV4.0 - Data &amp; API FUNCTIONAL</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>Default Management Search Functionality</t>
   </si>
   <si>
-    <t>Default Management Negative Flow</t>
-  </si>
-  <si>
     <t>Default Management Positive Flow</t>
   </si>
   <si>
@@ -152,6 +146,15 @@
   </si>
   <si>
     <t>circuitsset.xlsx,circuitset.txt</t>
+  </si>
+  <si>
+    <t>test_psps_ui_defaultmanagement_uploadfile_e2e.py</t>
+  </si>
+  <si>
+    <t>Default Management Uplaod a file e2e</t>
+  </si>
+  <si>
+    <t>dm_Circuits_Search_Data.csv</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1280,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1314,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
@@ -1527,7 +1530,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>16</v>
@@ -1556,7 +1559,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>17</v>
@@ -1569,14 +1572,14 @@
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
@@ -1618,10 +1621,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>17</v>
@@ -1634,16 +1637,16 @@
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>38</v>
-      </c>
       <c r="K5" s="55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
@@ -1685,10 +1688,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>17</v>
@@ -1701,14 +1704,14 @@
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="54" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I6" s="55"/>
       <c r="J6" s="55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB017BE1-C001-4E76-B180-90B3395C1B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1967795-17D1-4581-AC37-8D710008B91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
   <si>
     <t>Execute</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>circuitsset.xlsx,circuitset.txt</t>
+  </si>
+  <si>
+    <t>test_psps_ui_create_time_place.py</t>
+  </si>
+  <si>
+    <t>Create time place</t>
+  </si>
+  <si>
+    <t>Scope time place,Time place ID,Time place name,Weather start time,Weather end time</t>
+  </si>
+  <si>
+    <t>FIA,Circuit ID,Circuit name,Start OP no.,Start device,Stop OP no.,Stop device,Flag,Temp gen name,Substation,Transmission</t>
   </si>
 </sst>
 </file>
@@ -683,7 +695,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1273,43 +1369,43 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:GU7"/>
+  <dimension ref="A1:GU8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="43" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.109375" style="45" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.109375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="41" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.44140625" style="43" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="43" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" style="43" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="43" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="43" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.140625" style="45" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.140625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="41" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="43" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="43" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="43" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="43" customWidth="1"/>
     <col min="14" max="14" width="21" style="40" customWidth="1"/>
-    <col min="15" max="92" width="9.109375" style="40"/>
-    <col min="93" max="147" width="9.109375" style="41"/>
-    <col min="148" max="148" width="9.109375" style="41" collapsed="1"/>
-    <col min="149" max="186" width="9.109375" style="41"/>
-    <col min="187" max="187" width="9.109375" style="41" collapsed="1"/>
-    <col min="188" max="191" width="9.109375" style="41"/>
-    <col min="192" max="192" width="9.109375" style="41" collapsed="1"/>
-    <col min="193" max="194" width="9.109375" style="41"/>
-    <col min="195" max="195" width="9.109375" style="41" collapsed="1"/>
-    <col min="196" max="203" width="9.109375" style="41"/>
-    <col min="204" max="16384" width="9.109375" style="41" collapsed="1"/>
+    <col min="15" max="92" width="9.140625" style="40"/>
+    <col min="93" max="147" width="9.140625" style="41"/>
+    <col min="148" max="148" width="9.140625" style="41" collapsed="1"/>
+    <col min="149" max="186" width="9.140625" style="41"/>
+    <col min="187" max="187" width="9.140625" style="41" collapsed="1"/>
+    <col min="188" max="191" width="9.140625" style="41"/>
+    <col min="192" max="192" width="9.140625" style="41" collapsed="1"/>
+    <col min="193" max="194" width="9.140625" style="41"/>
+    <col min="195" max="195" width="9.140625" style="41" collapsed="1"/>
+    <col min="196" max="203" width="9.140625" style="41"/>
+    <col min="204" max="16384" width="9.140625" style="41" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:92" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1503,7 @@
       <c r="CM1" s="5"/>
       <c r="CN1" s="5"/>
     </row>
-    <row r="2" spans="1:92" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:92" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10"/>
       <c r="C2" s="9"/>
@@ -1501,7 +1597,7 @@
       <c r="CM2" s="5"/>
       <c r="CN2" s="5"/>
     </row>
-    <row r="3" spans="1:92" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:92" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:92" s="40" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:92" s="40" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
@@ -1613,7 +1709,7 @@
       <c r="AP4" s="39"/>
       <c r="AQ4" s="39"/>
     </row>
-    <row r="5" spans="1:92" s="40" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:92" s="40" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
@@ -1680,7 +1776,7 @@
       <c r="AP5" s="39"/>
       <c r="AQ5" s="39"/>
     </row>
-    <row r="6" spans="1:92" s="40" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:92" s="40" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
@@ -1745,114 +1841,209 @@
       <c r="AP6" s="39"/>
       <c r="AQ6" s="39"/>
     </row>
-    <row r="7" spans="1:92" s="5" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="50"/>
+    <row r="7" spans="1:92" s="40" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="50">
+        <v>1</v>
+      </c>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>44</v>
+      </c>
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
+      <c r="N7" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="55"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="39"/>
+    </row>
+    <row r="8" spans="1:92" s="5" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="23" priority="373" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="381" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="382" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="21" priority="371" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="379" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="380" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="19" priority="369" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="377" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="378" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="17" priority="367" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="375" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="376" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -1861,16 +2052,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E6" xr:uid="{3B1CCEEA-3289-44C8-9D1D-04599A1B1D40}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7" xr:uid="{3B1CCEEA-3289-44C8-9D1D-04599A1B1D40}">
       <formula1>"TEST,QA,DEV,PROD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6" xr:uid="{2C0620C3-AC94-442D-A0A9-232665619B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7" xr:uid="{2C0620C3-AC94-442D-A0A9-232665619B8E}">
       <formula1>"Chrome-Default,Chrome-Headless,Chrome-MAC-Default,Chrome-MAC-Headless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6" xr:uid="{5B503B92-99F5-49E9-AAB9-A55EE2349403}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7" xr:uid="{5B503B92-99F5-49E9-AAB9-A55EE2349403}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{6EA13E7D-46C4-4E6E-8A6E-850237CC6134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7" xr:uid="{6EA13E7D-46C4-4E6E-8A6E-850237CC6134}">
       <formula1>"Y,N,End"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1890,36 +2081,36 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="36" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="21" style="5" customWidth="1"/>
-    <col min="15" max="92" width="9.109375" style="5"/>
-    <col min="93" max="147" width="9.109375" style="1"/>
-    <col min="148" max="148" width="9.109375" style="1" collapsed="1"/>
-    <col min="149" max="186" width="9.109375" style="1"/>
-    <col min="187" max="187" width="9.109375" style="1" collapsed="1"/>
-    <col min="188" max="191" width="9.109375" style="1"/>
-    <col min="192" max="192" width="9.109375" style="1" collapsed="1"/>
-    <col min="193" max="194" width="9.109375" style="1"/>
-    <col min="195" max="195" width="9.109375" style="1" collapsed="1"/>
-    <col min="196" max="203" width="9.109375" style="1"/>
-    <col min="204" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="15" max="92" width="9.140625" style="5"/>
+    <col min="93" max="147" width="9.140625" style="1"/>
+    <col min="148" max="148" width="9.140625" style="1" collapsed="1"/>
+    <col min="149" max="186" width="9.140625" style="1"/>
+    <col min="187" max="187" width="9.140625" style="1" collapsed="1"/>
+    <col min="188" max="191" width="9.140625" style="1"/>
+    <col min="192" max="192" width="9.140625" style="1" collapsed="1"/>
+    <col min="193" max="194" width="9.140625" style="1"/>
+    <col min="195" max="195" width="9.140625" style="1" collapsed="1"/>
+    <col min="196" max="203" width="9.140625" style="1"/>
+    <col min="204" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
@@ -1939,7 +2130,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10"/>
       <c r="C2" s="9"/>
@@ -1955,7 +2146,7 @@
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
@@ -2017,10 +2208,10 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
     </row>
   </sheetData>
@@ -2037,21 +2228,21 @@
       <selection activeCell="A4" sqref="A4:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
@@ -2135,7 +2326,7 @@
       <c r="BY1" s="5"/>
       <c r="BZ1" s="5"/>
     </row>
-    <row r="2" spans="1:78" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:78" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10"/>
       <c r="C2" s="9"/>
@@ -2215,7 +2406,7 @@
       <c r="BY2" s="5"/>
       <c r="BZ2" s="5"/>
     </row>
-    <row r="3" spans="1:78" s="5" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" s="5" customFormat="1" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -2253,7 +2444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:78" s="5" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" s="5" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
@@ -2285,20 +2476,20 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
@@ -2379,7 +2570,7 @@
       <c r="BV1" s="5"/>
       <c r="BW1" s="5"/>
     </row>
-    <row r="2" spans="1:75" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:75" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10"/>
       <c r="C2" s="9"/>
@@ -2456,7 +2647,7 @@
       <c r="BV2" s="5"/>
       <c r="BW2" s="5"/>
     </row>
-    <row r="3" spans="1:75" s="5" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" s="5" customFormat="1" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -2494,7 +2685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:75" s="5" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" s="5" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
@@ -2512,23 +2703,23 @@
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K6" s="51"/>
       <c r="L6" s="51"/>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K8" s="51"/>
       <c r="L8" s="51"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K9" s="51"/>
       <c r="L9" s="51"/>
     </row>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1967795-17D1-4581-AC37-8D710008B91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9882F08A-88AE-4B71-AF5A-3B586E776C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>Execute</t>
   </si>
@@ -88,12 +88,6 @@
     <t>PSPS - Data &amp; API FUNCTIONAL</t>
   </si>
   <si>
-    <t>Notify Submessage template</t>
-  </si>
-  <si>
-    <t>Notification Type</t>
-  </si>
-  <si>
     <t>PSPS - ExternalPortal</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>Stage</t>
   </si>
   <si>
-    <t>Emergency Web public</t>
-  </si>
-  <si>
     <t>bucketPath</t>
   </si>
   <si>
@@ -164,6 +155,57 @@
   </si>
   <si>
     <t>FIA,Circuit ID,Circuit name,Start OP no.,Start device,Stop OP no.,Stop device,Flag,Temp gen name,Substation,Transmission</t>
+  </si>
+  <si>
+    <t>test_data_feederfedby.py</t>
+  </si>
+  <si>
+    <t>Feeder Fed By Logic</t>
+  </si>
+  <si>
+    <t>Chrome-Headless</t>
+  </si>
+  <si>
+    <t>timeplacetest_central</t>
+  </si>
+  <si>
+    <t>parentchild_feeder_test2</t>
+  </si>
+  <si>
+    <t>feederfed_test1</t>
+  </si>
+  <si>
+    <t>FileName1</t>
+  </si>
+  <si>
+    <t>FileName3</t>
+  </si>
+  <si>
+    <t>FileName4</t>
+  </si>
+  <si>
+    <t>test_EP_actualoutage.py</t>
+  </si>
+  <si>
+    <t>Actual Outage workflow</t>
+  </si>
+  <si>
+    <t>ff_criticalweb_current_outages.csv</t>
+  </si>
+  <si>
+    <t>ff_criticalweb_outage_devices.csv</t>
+  </si>
+  <si>
+    <t>test_EP_OutageLocations.py</t>
+  </si>
+  <si>
+    <t>Outage Locations workflow</t>
+  </si>
+  <si>
+    <t>test_EP_convertparque.py</t>
+  </si>
+  <si>
+    <t>convertparque.py</t>
   </si>
 </sst>
 </file>
@@ -526,29 +568,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -633,12 +663,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,9 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -690,12 +711,366 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1371,683 +1746,683 @@
   </sheetPr>
   <dimension ref="A1:GU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="43" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.140625" style="45" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="41" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" style="43" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="44" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="43" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="43" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="43" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="43" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="43" customWidth="1"/>
-    <col min="14" max="14" width="21" style="40" customWidth="1"/>
-    <col min="15" max="92" width="9.140625" style="40"/>
-    <col min="93" max="147" width="9.140625" style="41"/>
-    <col min="148" max="148" width="9.140625" style="41" collapsed="1"/>
-    <col min="149" max="186" width="9.140625" style="41"/>
-    <col min="187" max="187" width="9.140625" style="41" collapsed="1"/>
-    <col min="188" max="191" width="9.140625" style="41"/>
-    <col min="192" max="192" width="9.140625" style="41" collapsed="1"/>
-    <col min="193" max="194" width="9.140625" style="41"/>
-    <col min="195" max="195" width="9.140625" style="41" collapsed="1"/>
-    <col min="196" max="203" width="9.140625" style="41"/>
-    <col min="204" max="16384" width="9.140625" style="41" collapsed="1"/>
+    <col min="1" max="1" width="13.109375" style="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.109375" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="35" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" style="37" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="37" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="37" customWidth="1"/>
+    <col min="14" max="14" width="21" style="34" customWidth="1"/>
+    <col min="15" max="92" width="9.109375" style="34"/>
+    <col min="93" max="147" width="9.109375" style="35"/>
+    <col min="148" max="148" width="9.109375" style="35" collapsed="1"/>
+    <col min="149" max="186" width="9.109375" style="35"/>
+    <col min="187" max="187" width="9.109375" style="35" collapsed="1"/>
+    <col min="188" max="191" width="9.109375" style="35"/>
+    <col min="192" max="192" width="9.109375" style="35" collapsed="1"/>
+    <col min="193" max="194" width="9.109375" style="35"/>
+    <col min="195" max="195" width="9.109375" style="35" collapsed="1"/>
+    <col min="196" max="203" width="9.109375" style="35"/>
+    <col min="204" max="16384" width="9.109375" style="35" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:92" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+    </row>
+    <row r="2" spans="1:92" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2"/>
+      <c r="CM2" s="2"/>
+      <c r="CN2" s="2"/>
+    </row>
+    <row r="3" spans="1:92" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:92" s="34" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="43">
+        <v>1</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+    </row>
+    <row r="5" spans="1:92" s="34" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="5"/>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
-      <c r="BP1" s="5"/>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="5"/>
-      <c r="BT1" s="5"/>
-      <c r="BU1" s="5"/>
-      <c r="BV1" s="5"/>
-      <c r="BW1" s="5"/>
-      <c r="BX1" s="5"/>
-      <c r="BY1" s="5"/>
-      <c r="BZ1" s="5"/>
-      <c r="CA1" s="5"/>
-      <c r="CB1" s="5"/>
-      <c r="CC1" s="5"/>
-      <c r="CD1" s="5"/>
-      <c r="CE1" s="5"/>
-      <c r="CF1" s="5"/>
-      <c r="CG1" s="5"/>
-      <c r="CH1" s="5"/>
-      <c r="CI1" s="5"/>
-      <c r="CJ1" s="5"/>
-      <c r="CK1" s="5"/>
-      <c r="CL1" s="5"/>
-      <c r="CM1" s="5"/>
-      <c r="CN1" s="5"/>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="43">
+        <v>1</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="48"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
     </row>
-    <row r="2" spans="1:92" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5"/>
-      <c r="BT2" s="5"/>
-      <c r="BU2" s="5"/>
-      <c r="BV2" s="5"/>
-      <c r="BW2" s="5"/>
-      <c r="BX2" s="5"/>
-      <c r="BY2" s="5"/>
-      <c r="BZ2" s="5"/>
-      <c r="CA2" s="5"/>
-      <c r="CB2" s="5"/>
-      <c r="CC2" s="5"/>
-      <c r="CD2" s="5"/>
-      <c r="CE2" s="5"/>
-      <c r="CF2" s="5"/>
-      <c r="CG2" s="5"/>
-      <c r="CH2" s="5"/>
-      <c r="CI2" s="5"/>
-      <c r="CJ2" s="5"/>
-      <c r="CK2" s="5"/>
-      <c r="CL2" s="5"/>
-      <c r="CM2" s="5"/>
-      <c r="CN2" s="5"/>
+    <row r="6" spans="1:92" s="34" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="43">
+        <v>1</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="48"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="33"/>
+      <c r="AP6" s="33"/>
+      <c r="AQ6" s="33"/>
     </row>
-    <row r="3" spans="1:92" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16" t="s">
+    <row r="7" spans="1:92" s="34" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="43">
         <v>1</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="48"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AQ7" s="33"/>
     </row>
-    <row r="4" spans="1:92" s="40" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="50">
-        <v>1</v>
-      </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-    </row>
-    <row r="5" spans="1:92" s="40" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="50">
-        <v>1</v>
-      </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="55"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
-    </row>
-    <row r="6" spans="1:92" s="40" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="50">
-        <v>1</v>
-      </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="55"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-    </row>
-    <row r="7" spans="1:92" s="40" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="50">
-        <v>1</v>
-      </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-    </row>
-    <row r="8" spans="1:92" s="5" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:92" s="2" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="31" priority="381" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="381" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="382" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="29" priority="379" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="379" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="380" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="27" priority="377" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="377" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="378" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="25" priority="375" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="375" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="376" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2075,146 +2450,174 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:GU9"/>
+  <dimension ref="A1:GV9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12" style="36" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="21" style="5" customWidth="1"/>
-    <col min="15" max="92" width="9.140625" style="5"/>
-    <col min="93" max="147" width="9.140625" style="1"/>
-    <col min="148" max="148" width="9.140625" style="1" collapsed="1"/>
-    <col min="149" max="186" width="9.140625" style="1"/>
-    <col min="187" max="187" width="9.140625" style="1" collapsed="1"/>
-    <col min="188" max="191" width="9.140625" style="1"/>
-    <col min="192" max="192" width="9.140625" style="1" collapsed="1"/>
-    <col min="193" max="194" width="9.140625" style="1"/>
-    <col min="195" max="195" width="9.140625" style="1" collapsed="1"/>
-    <col min="196" max="203" width="9.140625" style="1"/>
-    <col min="204" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="12" style="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.109375" style="39" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="35" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.6640625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="12" style="38" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="86" width="9.109375" style="34"/>
+    <col min="87" max="141" width="9.109375" style="35"/>
+    <col min="142" max="142" width="9.109375" style="35" collapsed="1"/>
+    <col min="143" max="180" width="9.109375" style="35"/>
+    <col min="181" max="181" width="9.109375" style="35" collapsed="1"/>
+    <col min="182" max="185" width="9.109375" style="35"/>
+    <col min="186" max="186" width="9.109375" style="35" collapsed="1"/>
+    <col min="187" max="188" width="9.109375" style="35"/>
+    <col min="189" max="189" width="9.109375" style="35" collapsed="1"/>
+    <col min="190" max="197" width="9.109375" style="35"/>
+    <col min="198" max="198" width="9.109375" style="35" collapsed="1"/>
+    <col min="199" max="204" width="9.109375" style="35"/>
+    <col min="205" max="16384" width="9.109375" style="35" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="1:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
+    <row r="2" spans="1:8" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" s="34" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+    <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="43">
+        <v>1</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="47"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="G7" s="37" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="37" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{97BE53CD-10F5-4B65-A481-D9129253028C}">
+      <formula1>"Y,N,End"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{CCDA7A78-A04D-4402-B991-2E5BCAB586CA}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{26455790-AA52-4327-A83D-3E6CDDE2F64E}">
+      <formula1>"Chrome-Default,Chrome-Headless,Chrome-MAC-Default,Chrome-MAC-Headless"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{7DF67D48-D63D-43C5-9073-DA098A501C27}">
+      <formula1>"TEST,QA,DEV,PROD"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -2222,247 +2625,449 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C572FFB1-9F4C-4192-B0F0-904D82E769AD}">
-  <dimension ref="A1:BZ4"/>
+  <dimension ref="A1:BQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="44"/>
+    <col min="2" max="2" width="35.33203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="44"/>
+    <col min="6" max="6" width="8.5546875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="44" customWidth="1"/>
+    <col min="11" max="11" width="10" style="44" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:69" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="5"/>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
-      <c r="BP1" s="5"/>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="5"/>
-      <c r="BT1" s="5"/>
-      <c r="BU1" s="5"/>
-      <c r="BV1" s="5"/>
-      <c r="BW1" s="5"/>
-      <c r="BX1" s="5"/>
-      <c r="BY1" s="5"/>
-      <c r="BZ1" s="5"/>
+      <c r="B1" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
     </row>
-    <row r="2" spans="1:78" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5"/>
-      <c r="BT2" s="5"/>
-      <c r="BU2" s="5"/>
-      <c r="BV2" s="5"/>
-      <c r="BW2" s="5"/>
-      <c r="BX2" s="5"/>
-      <c r="BY2" s="5"/>
-      <c r="BZ2" s="5"/>
+    <row r="2" spans="1:69" s="35" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="34"/>
+      <c r="BM2" s="34"/>
+      <c r="BN2" s="34"/>
+      <c r="BO2" s="34"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="34"/>
     </row>
-    <row r="3" spans="1:78" s="5" customFormat="1" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:69" s="34" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>24</v>
+      <c r="H3" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:78" s="5" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
+    <row r="4" spans="1:69" s="34" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="43">
+        <v>1</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+    </row>
+    <row r="5" spans="1:69" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="43">
+        <v>1</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+    </row>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="43">
+        <v>1</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E6" xr:uid="{CB6833EE-7C6B-47D0-9606-CE788AD40AE1}">
+      <formula1>"TEST,QA,DEV,PROD"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6" xr:uid="{2A2D9F5B-38DF-49FF-8EE2-E7F9A2E08BC1}">
+      <formula1>"Chrome-Default,Chrome-Headless,Chrome-MAC-Default,Chrome-MAC-Headless"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6" xr:uid="{FC9E3D15-EA13-4F9C-A97E-1A304AB9B3FB}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{316F4A82-5A7B-4319-9CB3-4A4B57173F0A}">
+      <formula1>"Y,N,End"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2473,255 +3078,255 @@
   <dimension ref="A1:BW9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:75" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+    </row>
+    <row r="2" spans="1:75" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="2"/>
+    </row>
+    <row r="3" spans="1:75" s="2" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="5"/>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
-      <c r="BP1" s="5"/>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="5"/>
-      <c r="BT1" s="5"/>
-      <c r="BU1" s="5"/>
-      <c r="BV1" s="5"/>
-      <c r="BW1" s="5"/>
     </row>
-    <row r="2" spans="1:75" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5"/>
-      <c r="BT2" s="5"/>
-      <c r="BU2" s="5"/>
-      <c r="BV2" s="5"/>
-      <c r="BW2" s="5"/>
+    <row r="4" spans="1:75" s="2" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
     </row>
-    <row r="3" spans="1:75" s="5" customFormat="1" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="52" t="s">
-        <v>25</v>
-      </c>
+    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
     </row>
-    <row r="4" spans="1:75" s="5" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
+    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-    </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-    </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9882F08A-88AE-4B71-AF5A-3B586E776C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9276799-5832-4CB9-B791-0417AB13650E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
   <si>
     <t>Execute</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>convertparque.py</t>
+  </si>
+  <si>
+    <t>test_data_devicache.py</t>
+  </si>
+  <si>
+    <t>Device Cache Logic</t>
   </si>
 </sst>
 </file>
@@ -734,7 +740,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1746,9 +1836,9 @@
   </sheetPr>
   <dimension ref="A1:GU8"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2299,130 +2389,130 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="63" priority="381" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="381" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="382" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="61" priority="379" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="379" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="380" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="59" priority="377" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="377" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="378" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="57" priority="375" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="375" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="376" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2452,8 +2542,8 @@
   </sheetPr>
   <dimension ref="A1:GV9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2555,6 +2645,30 @@
       </c>
       <c r="H4" s="47"/>
     </row>
+    <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="43">
+        <v>1</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="47"/>
+    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="G7" s="37" t="s">
@@ -2573,6 +2687,38 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2580,7 +2726,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2588,7 +2734,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2596,7 +2742,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2605,16 +2751,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{97BE53CD-10F5-4B65-A481-D9129253028C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{97BE53CD-10F5-4B65-A481-D9129253028C}">
       <formula1>"Y,N,End"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{CCDA7A78-A04D-4402-B991-2E5BCAB586CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{CCDA7A78-A04D-4402-B991-2E5BCAB586CA}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{26455790-AA52-4327-A83D-3E6CDDE2F64E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{26455790-AA52-4327-A83D-3E6CDDE2F64E}">
       <formula1>"Chrome-Default,Chrome-Headless,Chrome-MAC-Default,Chrome-MAC-Headless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{7DF67D48-D63D-43C5-9073-DA098A501C27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{7DF67D48-D63D-43C5-9073-DA098A501C27}">
       <formula1>"TEST,QA,DEV,PROD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1967795-17D1-4581-AC37-8D710008B91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E6FEE8-7209-4FA7-921A-F792C47561FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="3045" windowWidth="18840" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
   <si>
     <t>Execute</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>FIA,Circuit ID,Circuit name,Start OP no.,Start device,Stop OP no.,Stop device,Flag,Temp gen name,Substation,Transmission</t>
+  </si>
+  <si>
+    <t>test_psps_ui_create_event.py</t>
+  </si>
+  <si>
+    <t>Time places,Stage,Status,Tied to event,Created by,Last modified,External name</t>
   </si>
 </sst>
 </file>
@@ -695,7 +701,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1369,11 +1459,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:GU8"/>
+  <dimension ref="A1:GU9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1904,146 +1994,241 @@
       <c r="AP7" s="39"/>
       <c r="AQ7" s="39"/>
     </row>
-    <row r="8" spans="1:92" s="5" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="50"/>
+    <row r="8" spans="1:92" s="40" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="50">
+        <v>1</v>
+      </c>
       <c r="G8" s="54"/>
       <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="L8" s="54"/>
       <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
+      <c r="N8" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="55"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+    </row>
+    <row r="9" spans="1:92" s="5" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="31" priority="381" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="389" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="390" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="29" priority="379" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="387" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="388" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="27" priority="377" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="385" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="386" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="25" priority="375" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="383" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="384" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2052,16 +2237,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7" xr:uid="{3B1CCEEA-3289-44C8-9D1D-04599A1B1D40}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E8" xr:uid="{3B1CCEEA-3289-44C8-9D1D-04599A1B1D40}">
       <formula1>"TEST,QA,DEV,PROD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7" xr:uid="{2C0620C3-AC94-442D-A0A9-232665619B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8" xr:uid="{2C0620C3-AC94-442D-A0A9-232665619B8E}">
       <formula1>"Chrome-Default,Chrome-Headless,Chrome-MAC-Default,Chrome-MAC-Headless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7" xr:uid="{5B503B92-99F5-49E9-AAB9-A55EE2349403}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F8" xr:uid="{5B503B92-99F5-49E9-AAB9-A55EE2349403}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7" xr:uid="{6EA13E7D-46C4-4E6E-8A6E-850237CC6134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A8" xr:uid="{6EA13E7D-46C4-4E6E-8A6E-850237CC6134}">
       <formula1>"Y,N,End"</formula1>
     </dataValidation>
   </dataValidations>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9276799-5832-4CB9-B791-0417AB13650E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2B40AA-0607-44EA-9231-541074B75914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -1836,7 +1836,7 @@
   </sheetPr>
   <dimension ref="A1:GU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
@@ -2542,8 +2542,8 @@
   </sheetPr>
   <dimension ref="A1:GV9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2665,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5" s="47"/>
     </row>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2B40AA-0607-44EA-9231-541074B75914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C2DF6E-1433-4861-8F38-80F3DF6F8913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>Execute</t>
   </si>
@@ -212,6 +212,21 @@
   </si>
   <si>
     <t>Device Cache Logic</t>
+  </si>
+  <si>
+    <t>CentralA01_1209R1</t>
+  </si>
+  <si>
+    <t>User specific_timeplaceName</t>
+  </si>
+  <si>
+    <t>Default Device Logic</t>
+  </si>
+  <si>
+    <t>Test_devicecheck</t>
+  </si>
+  <si>
+    <t>test_data_defaultdevicecheck.py</t>
   </si>
 </sst>
 </file>
@@ -740,7 +755,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1838,7 +1937,7 @@
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2389,130 +2488,130 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="71" priority="381" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="381" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="382" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="69" priority="379" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="379" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="380" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="67" priority="377" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="377" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="378" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="65" priority="375" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="375" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="376" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="63" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="61" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="59" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="57" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="55" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2543,7 +2642,7 @@
   <dimension ref="A1:GV9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2615,7 +2714,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>9</v>
@@ -2665,9 +2764,33 @@
         <v>1</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="43">
+        <v>1</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
@@ -2687,6 +2810,38 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="20" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2694,7 +2849,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2702,7 +2857,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2710,7 +2865,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2718,49 +2873,49 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{97BE53CD-10F5-4B65-A481-D9129253028C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{97BE53CD-10F5-4B65-A481-D9129253028C}">
       <formula1>"Y,N,End"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{CCDA7A78-A04D-4402-B991-2E5BCAB586CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6" xr:uid="{CCDA7A78-A04D-4402-B991-2E5BCAB586CA}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{26455790-AA52-4327-A83D-3E6CDDE2F64E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6" xr:uid="{26455790-AA52-4327-A83D-3E6CDDE2F64E}">
       <formula1>"Chrome-Default,Chrome-Headless,Chrome-MAC-Default,Chrome-MAC-Headless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{7DF67D48-D63D-43C5-9073-DA098A501C27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E6" xr:uid="{7DF67D48-D63D-43C5-9073-DA098A501C27}">
       <formula1>"TEST,QA,DEV,PROD"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2774,7 +2929,7 @@
   <dimension ref="A1:BQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3105,98 +3260,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9276799-5832-4CB9-B791-0417AB13650E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CBC66D-CCA4-471C-9D57-6E3D3EDFD227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
   <si>
     <t>Execute</t>
   </si>
@@ -212,6 +212,18 @@
   </si>
   <si>
     <t>Device Cache Logic</t>
+  </si>
+  <si>
+    <t>test_data_create_circuit_info_file.py</t>
+  </si>
+  <si>
+    <t>Circuit Info File Generation Logic</t>
+  </si>
+  <si>
+    <t>timeplace</t>
+  </si>
+  <si>
+    <t>2020-11-07-V-01</t>
   </si>
 </sst>
 </file>
@@ -740,7 +752,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1836,41 +1932,41 @@
   </sheetPr>
   <dimension ref="A1:GU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.109375" style="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="35" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.44140625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="37" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="37" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" style="37" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="37" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.140625" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="35" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="38" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="37" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="37" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="37" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="37" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="37" customWidth="1"/>
     <col min="14" max="14" width="21" style="34" customWidth="1"/>
-    <col min="15" max="92" width="9.109375" style="34"/>
-    <col min="93" max="147" width="9.109375" style="35"/>
-    <col min="148" max="148" width="9.109375" style="35" collapsed="1"/>
-    <col min="149" max="186" width="9.109375" style="35"/>
-    <col min="187" max="187" width="9.109375" style="35" collapsed="1"/>
-    <col min="188" max="191" width="9.109375" style="35"/>
-    <col min="192" max="192" width="9.109375" style="35" collapsed="1"/>
-    <col min="193" max="194" width="9.109375" style="35"/>
-    <col min="195" max="195" width="9.109375" style="35" collapsed="1"/>
-    <col min="196" max="203" width="9.109375" style="35"/>
-    <col min="204" max="16384" width="9.109375" style="35" collapsed="1"/>
+    <col min="15" max="92" width="9.140625" style="34"/>
+    <col min="93" max="147" width="9.140625" style="35"/>
+    <col min="148" max="148" width="9.140625" style="35" collapsed="1"/>
+    <col min="149" max="186" width="9.140625" style="35"/>
+    <col min="187" max="187" width="9.140625" style="35" collapsed="1"/>
+    <col min="188" max="191" width="9.140625" style="35"/>
+    <col min="192" max="192" width="9.140625" style="35" collapsed="1"/>
+    <col min="193" max="194" width="9.140625" style="35"/>
+    <col min="195" max="195" width="9.140625" style="35" collapsed="1"/>
+    <col min="196" max="203" width="9.140625" style="35"/>
+    <col min="204" max="16384" width="9.140625" style="35" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:92" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -1968,7 +2064,7 @@
       <c r="CM1" s="2"/>
       <c r="CN1" s="2"/>
     </row>
-    <row r="2" spans="1:92" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:92" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -2062,7 +2158,7 @@
       <c r="CM2" s="2"/>
       <c r="CN2" s="2"/>
     </row>
-    <row r="3" spans="1:92" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:92" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +2205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:92" s="34" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:92" s="34" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2174,7 +2270,7 @@
       <c r="AP4" s="33"/>
       <c r="AQ4" s="33"/>
     </row>
-    <row r="5" spans="1:92" s="34" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:92" s="34" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -2241,7 +2337,7 @@
       <c r="AP5" s="33"/>
       <c r="AQ5" s="33"/>
     </row>
-    <row r="6" spans="1:92" s="34" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:92" s="34" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
@@ -2306,7 +2402,7 @@
       <c r="AP6" s="33"/>
       <c r="AQ6" s="33"/>
     </row>
-    <row r="7" spans="1:92" s="34" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:92" s="34" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
@@ -2369,7 +2465,7 @@
       <c r="AP7" s="33"/>
       <c r="AQ7" s="33"/>
     </row>
-    <row r="8" spans="1:92" s="2" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:92" s="2" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>7</v>
       </c>
@@ -2389,130 +2485,130 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="71" priority="381" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="381" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="382" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="69" priority="379" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="379" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="380" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="67" priority="377" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="377" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="378" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="65" priority="375" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="375" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="376" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="63" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="61" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="59" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="57" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="55" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2542,36 +2638,37 @@
   </sheetPr>
   <dimension ref="A1:GV9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.109375" style="39" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="35" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="39" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="35" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" style="37" customWidth="1"/>
     <col min="6" max="6" width="12" style="38" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="86" width="9.109375" style="34"/>
-    <col min="87" max="141" width="9.109375" style="35"/>
-    <col min="142" max="142" width="9.109375" style="35" collapsed="1"/>
-    <col min="143" max="180" width="9.109375" style="35"/>
-    <col min="181" max="181" width="9.109375" style="35" collapsed="1"/>
-    <col min="182" max="185" width="9.109375" style="35"/>
-    <col min="186" max="186" width="9.109375" style="35" collapsed="1"/>
-    <col min="187" max="188" width="9.109375" style="35"/>
-    <col min="189" max="189" width="9.109375" style="35" collapsed="1"/>
-    <col min="190" max="197" width="9.109375" style="35"/>
-    <col min="198" max="198" width="9.109375" style="35" collapsed="1"/>
-    <col min="199" max="204" width="9.109375" style="35"/>
-    <col min="205" max="16384" width="9.109375" style="35" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="86" width="9.140625" style="34"/>
+    <col min="87" max="141" width="9.140625" style="35"/>
+    <col min="142" max="142" width="9.140625" style="35" collapsed="1"/>
+    <col min="143" max="180" width="9.140625" style="35"/>
+    <col min="181" max="181" width="9.140625" style="35" collapsed="1"/>
+    <col min="182" max="185" width="9.140625" style="35"/>
+    <col min="186" max="186" width="9.140625" style="35" collapsed="1"/>
+    <col min="187" max="188" width="9.140625" style="35"/>
+    <col min="189" max="189" width="9.140625" style="35" collapsed="1"/>
+    <col min="190" max="197" width="9.140625" style="35"/>
+    <col min="198" max="198" width="9.140625" style="35" collapsed="1"/>
+    <col min="199" max="204" width="9.140625" style="35"/>
+    <col min="205" max="16384" width="9.140625" style="35" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2584,8 +2681,9 @@
       <c r="F1" s="50"/>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
-    <row r="2" spans="1:8" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
@@ -2594,8 +2692,9 @@
       <c r="F2" s="54"/>
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="1:8" s="34" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="34" customFormat="1" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2620,8 +2719,11 @@
       <c r="H3" s="21" t="s">
         <v>9</v>
       </c>
+      <c r="I3" s="21" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2644,8 +2746,9 @@
         <v>45</v>
       </c>
       <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
     </row>
-    <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -2668,25 +2771,81 @@
         <v>45</v>
       </c>
       <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
       <c r="G7" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9" s="37" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="20" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2694,7 +2853,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2702,7 +2861,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2710,7 +2869,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2718,7 +2877,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2726,7 +2885,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2734,7 +2893,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2742,7 +2901,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2751,16 +2910,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{97BE53CD-10F5-4B65-A481-D9129253028C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{97BE53CD-10F5-4B65-A481-D9129253028C}">
       <formula1>"Y,N,End"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{CCDA7A78-A04D-4402-B991-2E5BCAB586CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6" xr:uid="{CCDA7A78-A04D-4402-B991-2E5BCAB586CA}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{26455790-AA52-4327-A83D-3E6CDDE2F64E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6" xr:uid="{26455790-AA52-4327-A83D-3E6CDDE2F64E}">
       <formula1>"Chrome-Default,Chrome-Headless,Chrome-MAC-Default,Chrome-MAC-Headless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{7DF67D48-D63D-43C5-9073-DA098A501C27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E6" xr:uid="{7DF67D48-D63D-43C5-9073-DA098A501C27}">
       <formula1>"TEST,QA,DEV,PROD"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2777,23 +2936,23 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="44"/>
-    <col min="2" max="2" width="35.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="44"/>
-    <col min="6" max="6" width="8.5546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="44" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="44"/>
+    <col min="2" max="2" width="35.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="44"/>
+    <col min="6" max="6" width="8.5703125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="44" customWidth="1"/>
     <col min="11" max="11" width="10" style="44" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="44"/>
+    <col min="12" max="16384" width="8.85546875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:69" s="35" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2868,7 +3027,7 @@
       <c r="BP1" s="34"/>
       <c r="BQ1" s="34"/>
     </row>
-    <row r="2" spans="1:69" s="35" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:69" s="35" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
@@ -2939,7 +3098,7 @@
       <c r="BP2" s="34"/>
       <c r="BQ2" s="34"/>
     </row>
-    <row r="3" spans="1:69" s="34" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:69" s="34" customFormat="1" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2974,7 +3133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="34" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" s="34" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -3026,7 +3185,7 @@
       <c r="AG4" s="33"/>
       <c r="AH4" s="33"/>
     </row>
-    <row r="5" spans="1:69" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -3078,7 +3237,7 @@
       <c r="AG5" s="33"/>
       <c r="AH5" s="33"/>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
@@ -3227,20 +3386,20 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -3321,7 +3480,7 @@
       <c r="BV1" s="2"/>
       <c r="BW1" s="2"/>
     </row>
-    <row r="2" spans="1:75" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:75" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -3398,7 +3557,7 @@
       <c r="BV2" s="2"/>
       <c r="BW2" s="2"/>
     </row>
-    <row r="3" spans="1:75" s="2" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" s="2" customFormat="1" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -3436,7 +3595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:75" s="2" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" s="2" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
@@ -3454,23 +3613,23 @@
       <c r="M4" s="47"/>
       <c r="N4" s="47"/>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
     </row>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C2DF6E-1433-4861-8F38-80F3DF6F8913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022880FD-CEA8-428C-98E5-29EA4CAB2522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
   <si>
     <t>Execute</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>test_data_defaultdevicecheck.py</t>
+  </si>
+  <si>
+    <t>Kern1216</t>
+  </si>
+  <si>
+    <t>490CirFile</t>
   </si>
 </sst>
 </file>
@@ -2639,10 +2645,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:GV9"/>
+  <dimension ref="A1:GV12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2670,7 +2676,7 @@
     <col min="205" max="16384" width="9.109375" style="35" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2684,7 +2690,7 @@
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="1:8" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
@@ -2694,7 +2700,7 @@
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" s="34" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="34" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2744,7 +2750,7 @@
       </c>
       <c r="H4" s="47"/>
     </row>
-    <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -2768,7 +2774,7 @@
       </c>
       <c r="H5" s="47"/>
     </row>
-    <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
@@ -2788,23 +2794,36 @@
         <v>1</v>
       </c>
       <c r="G6" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="I7" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="47"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="G7" s="37" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G8" s="37" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G9" s="37" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="37" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2874,38 +2893,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{97BE53CD-10F5-4B65-A481-D9129253028C}">
       <formula1>"Y,N,End"</formula1>
     </dataValidation>
@@ -3260,98 +3279,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022880FD-CEA8-428C-98E5-29EA4CAB2522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB32C749-6990-49CE-B02C-55112AE3512B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
   <si>
     <t>Execute</t>
   </si>
@@ -233,13 +233,52 @@
   </si>
   <si>
     <t>490CirFile</t>
+  </si>
+  <si>
+    <t>TP1Polygon_1299</t>
+  </si>
+  <si>
+    <t>Timeplace ID</t>
+  </si>
+  <si>
+    <t>Timeplace Name</t>
+  </si>
+  <si>
+    <t>timeplaceId: 251,</t>
+  </si>
+  <si>
+    <t>"timeplaceId": 252,</t>
+  </si>
+  <si>
+    <t>TP5polygon-1299</t>
+  </si>
+  <si>
+    <t>"timeplaceId": 253,</t>
+  </si>
+  <si>
+    <t>Mergepolygon_1299</t>
+  </si>
+  <si>
+    <t>"timeplaceId": 254,</t>
+  </si>
+  <si>
+    <t>TP6polygon_1299</t>
+  </si>
+  <si>
+    <t>"timeplaceId": 255,</t>
+  </si>
+  <si>
+    <t>Samplepolygon_1299</t>
+  </si>
+  <si>
+    <t>Test_MetCase4_Polygon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +388,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -595,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -756,6 +808,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2645,10 +2703,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:GV12"/>
+  <dimension ref="A1:GV22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2794,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="34" t="s">
@@ -2825,6 +2883,54 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G12" s="37" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB32C749-6990-49CE-B02C-55112AE3512B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1D1B36-7C26-4E3F-86C3-31358C0E474D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="9" r:id="rId2"/>
-    <sheet name="EP" sheetId="10" r:id="rId3"/>
-    <sheet name="EW" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId3"/>
+    <sheet name="EP" sheetId="10" r:id="rId4"/>
+    <sheet name="EW" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!#REF!</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>Execute</t>
   </si>
@@ -272,13 +273,28 @@
   </si>
   <si>
     <t>Test_MetCase4_Polygon</t>
+  </si>
+  <si>
+    <t>Circuit File - Device Identification by Meterology Polygon and Default Device logic</t>
+  </si>
+  <si>
+    <t>New Event Creation UI</t>
+  </si>
+  <si>
+    <t>View and Edit Event UI</t>
+  </si>
+  <si>
+    <t>Default Management Data</t>
+  </si>
+  <si>
+    <t>TP1_Automation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +417,13 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -647,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -815,6 +838,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2706,7 +2733,7 @@
   <dimension ref="A1:GV22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2734,7 +2761,7 @@
     <col min="205" max="16384" width="9.109375" style="35" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2748,7 +2775,7 @@
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
@@ -2758,7 +2785,7 @@
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:9" s="34" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="34" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +2811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2808,7 +2835,7 @@
       </c>
       <c r="H4" s="47"/>
     </row>
-    <row r="5" spans="1:9" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -2832,7 +2859,7 @@
       </c>
       <c r="H5" s="47"/>
     </row>
-    <row r="6" spans="1:9" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
@@ -2852,48 +2879,54 @@
         <v>1</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6" s="47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="I7" s="34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H9" s="37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G10" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G11" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" s="37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" ht="33.6" x14ac:dyDescent="0.3">
       <c r="C17" s="55" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="H17" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="33.6" x14ac:dyDescent="0.3">
       <c r="C18" s="56" t="s">
         <v>71</v>
       </c>
@@ -2901,7 +2934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" ht="33.6" x14ac:dyDescent="0.3">
       <c r="C19" s="56" t="s">
         <v>72</v>
       </c>
@@ -2909,7 +2942,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" ht="33.6" x14ac:dyDescent="0.3">
       <c r="C20" s="56" t="s">
         <v>74</v>
       </c>
@@ -2917,7 +2950,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="3:4" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" ht="33.6" x14ac:dyDescent="0.3">
       <c r="C21" s="56" t="s">
         <v>76</v>
       </c>
@@ -2925,7 +2958,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="3:4" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" ht="33.6" x14ac:dyDescent="0.3">
       <c r="C22" s="56" t="s">
         <v>78</v>
       </c>
@@ -3050,6 +3083,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B96C1F-DFBE-462B-AC9A-B7425C1AEE75}">
+  <dimension ref="D10:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="10" spans="4:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="D10" s="57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C572FFB1-9F4C-4192-B0F0-904D82E769AD}">
   <dimension ref="A1:BQ6"/>
   <sheetViews>
@@ -3499,7 +3567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86368903-55CA-4C89-B100-02942EE8839F}">
   <dimension ref="A1:BW9"/>
   <sheetViews>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1D1B36-7C26-4E3F-86C3-31358C0E474D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B432ECE9-A21F-40D9-B986-6A7E40027B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
   <si>
     <t>Execute</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>TP1_Automation</t>
+  </si>
+  <si>
+    <t>Merge_Polygon_Test1</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -2733,7 +2739,7 @@
   <dimension ref="A1:GV22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2873,13 +2879,13 @@
         <v>44</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F6" s="43">
         <v>1</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="34" t="s">
@@ -2899,6 +2905,9 @@
       <c r="H9" s="37" t="s">
         <v>64</v>
       </c>
+      <c r="J9" s="34" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G10" s="37" t="s">
@@ -3063,7 +3072,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{97BE53CD-10F5-4B65-A481-D9129253028C}">
       <formula1>"Y,N,End"</formula1>
     </dataValidation>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E6FEE8-7209-4FA7-921A-F792C47561FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D38AF52-E9CC-40D1-B75D-A43DE6D3AF7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="3045" windowWidth="18840" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3045" windowWidth="18840" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Notification Type/ Flag</t>
   </si>
   <si>
-    <t>DEV</t>
-  </si>
-  <si>
     <t>test_psps_ui_defaultmanagement_positive_e2e.py</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Time places,Stage,Status,Tied to event,Created by,Last modified,External name</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -1462,8 +1462,8 @@
   <dimension ref="A1:GU9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
@@ -1713,7 +1713,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>16</v>
@@ -1739,30 +1739,30 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F4" s="50">
         <v>1</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
@@ -1804,32 +1804,32 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F5" s="50">
         <v>1</v>
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="55" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>37</v>
       </c>
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
@@ -1871,30 +1871,30 @@
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F6" s="50">
         <v>1</v>
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="55"/>
       <c r="J6" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
@@ -1936,16 +1936,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F7" s="50">
         <v>1</v>
@@ -1954,15 +1954,15 @@
       <c r="H7" s="54"/>
       <c r="I7" s="55"/>
       <c r="J7" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
       <c r="N7" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O7" s="55"/>
       <c r="P7" s="39"/>
@@ -1999,16 +1999,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F8" s="50">
         <v>1</v>
@@ -2017,15 +2017,15 @@
       <c r="H8" s="54"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="54"/>
       <c r="M8" s="54"/>
       <c r="N8" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O8" s="55"/>
       <c r="P8" s="39"/>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,16 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B432ECE9-A21F-40D9-B986-6A7E40027B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B79FB1-4375-4BD8-BCF2-2B31612AAD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId3"/>
-    <sheet name="EP" sheetId="10" r:id="rId4"/>
-    <sheet name="EW" sheetId="12" r:id="rId5"/>
+    <sheet name="EP" sheetId="10" r:id="rId3"/>
+    <sheet name="EW" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!#REF!</definedName>
@@ -22,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>Execute</t>
   </si>
@@ -131,9 +132,6 @@
     <t>Default Management Positive Flow</t>
   </si>
   <si>
-    <t>circuitsset.csv</t>
-  </si>
-  <si>
     <t>FIA,Circuit ID,Circuit name,Source Is.D,Source Is.D type,Substation,Comments</t>
   </si>
   <si>
@@ -215,9 +213,6 @@
     <t>Device Cache Logic</t>
   </si>
   <si>
-    <t>CentralA01_1209R1</t>
-  </si>
-  <si>
     <t>User specific_timeplaceName</t>
   </si>
   <si>
@@ -230,63 +225,6 @@
     <t>test_data_defaultdevicecheck.py</t>
   </si>
   <si>
-    <t>Kern1216</t>
-  </si>
-  <si>
-    <t>490CirFile</t>
-  </si>
-  <si>
-    <t>TP1Polygon_1299</t>
-  </si>
-  <si>
-    <t>Timeplace ID</t>
-  </si>
-  <si>
-    <t>Timeplace Name</t>
-  </si>
-  <si>
-    <t>timeplaceId: 251,</t>
-  </si>
-  <si>
-    <t>"timeplaceId": 252,</t>
-  </si>
-  <si>
-    <t>TP5polygon-1299</t>
-  </si>
-  <si>
-    <t>"timeplaceId": 253,</t>
-  </si>
-  <si>
-    <t>Mergepolygon_1299</t>
-  </si>
-  <si>
-    <t>"timeplaceId": 254,</t>
-  </si>
-  <si>
-    <t>TP6polygon_1299</t>
-  </si>
-  <si>
-    <t>"timeplaceId": 255,</t>
-  </si>
-  <si>
-    <t>Samplepolygon_1299</t>
-  </si>
-  <si>
-    <t>Test_MetCase4_Polygon</t>
-  </si>
-  <si>
-    <t>Circuit File - Device Identification by Meterology Polygon and Default Device logic</t>
-  </si>
-  <si>
-    <t>New Event Creation UI</t>
-  </si>
-  <si>
-    <t>View and Edit Event UI</t>
-  </si>
-  <si>
-    <t>Default Management Data</t>
-  </si>
-  <si>
     <t>TP1_Automation</t>
   </si>
   <si>
@@ -294,13 +232,70 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>defaultcircuits_output.csv</t>
+  </si>
+  <si>
+    <t>Test_Auto_Test_CentralA01</t>
+  </si>
+  <si>
+    <t>Test_Auto_Test_18MAYTP1_Polygon</t>
+  </si>
+  <si>
+    <t>Test_Auto_LastYearBig_Polygon</t>
+  </si>
+  <si>
+    <t>Test500plus_Polygon1</t>
+  </si>
+  <si>
+    <t>Test_Auto_vTest_MetCase3TP6_Polygon</t>
+  </si>
+  <si>
+    <t>Upload DefCircuits FileName</t>
+  </si>
+  <si>
+    <t>Scope TimePlace Name</t>
+  </si>
+  <si>
+    <t>2020-14-10-V-01</t>
+  </si>
+  <si>
+    <t>No of TPs to be created</t>
+  </si>
+  <si>
+    <t>test_data_isolationzone.py</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Isolation Zone Logic</t>
+  </si>
+  <si>
+    <t>Auto_TP_20210112_120532</t>
+  </si>
+  <si>
+    <t>Ram_DEV_CentralA01_3</t>
+  </si>
+  <si>
+    <t>2020-12-10-V-01</t>
+  </si>
+  <si>
+    <t>2020-11-07-V-01</t>
+  </si>
+  <si>
+    <t>2021-1-07-V-02</t>
+  </si>
+  <si>
+    <t>Narsing_Test500plus_Polygon1_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,15 +419,8 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +473,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -676,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -844,10 +838,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2034,7 +2027,7 @@
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2284,7 +2277,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>16</v>
@@ -2319,21 +2312,21 @@
         <v>17</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F4" s="43">
         <v>1</v>
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="47" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="I4" s="48"/>
       <c r="J4" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -2384,23 +2377,23 @@
         <v>17</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F5" s="43">
         <v>1</v>
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="48" t="s">
         <v>33</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>34</v>
       </c>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
@@ -2451,21 +2444,21 @@
         <v>17</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F6" s="43">
         <v>1</v>
       </c>
       <c r="G6" s="47"/>
       <c r="H6" s="47" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -2507,16 +2500,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F7" s="43">
         <v>1</v>
@@ -2525,15 +2518,15 @@
       <c r="H7" s="47"/>
       <c r="I7" s="48"/>
       <c r="J7" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
       <c r="N7" s="48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O7" s="48"/>
       <c r="P7" s="33"/>
@@ -2736,10 +2729,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:GV22"/>
+  <dimension ref="A1:GV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2750,24 +2743,26 @@
     <col min="4" max="4" width="16.6640625" style="35" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13.6640625" style="37" customWidth="1"/>
     <col min="6" max="6" width="12" style="38" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" style="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.88671875" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="86" width="9.109375" style="34"/>
-    <col min="87" max="141" width="9.109375" style="35"/>
-    <col min="142" max="142" width="9.109375" style="35" collapsed="1"/>
-    <col min="143" max="180" width="9.109375" style="35"/>
-    <col min="181" max="181" width="9.109375" style="35" collapsed="1"/>
-    <col min="182" max="185" width="9.109375" style="35"/>
-    <col min="186" max="186" width="9.109375" style="35" collapsed="1"/>
-    <col min="187" max="188" width="9.109375" style="35"/>
-    <col min="189" max="189" width="9.109375" style="35" collapsed="1"/>
-    <col min="190" max="197" width="9.109375" style="35"/>
-    <col min="198" max="198" width="9.109375" style="35" collapsed="1"/>
-    <col min="199" max="204" width="9.109375" style="35"/>
+    <col min="9" max="9" width="23.77734375" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" style="34" customWidth="1"/>
+    <col min="11" max="85" width="9.109375" style="34"/>
+    <col min="86" max="140" width="9.109375" style="35"/>
+    <col min="141" max="141" width="9.109375" style="35" collapsed="1"/>
+    <col min="142" max="179" width="9.109375" style="35"/>
+    <col min="180" max="180" width="9.109375" style="35" collapsed="1"/>
+    <col min="181" max="184" width="9.109375" style="35"/>
+    <col min="185" max="185" width="9.109375" style="35" collapsed="1"/>
+    <col min="186" max="187" width="9.109375" style="35"/>
+    <col min="188" max="188" width="9.109375" style="35" collapsed="1"/>
+    <col min="189" max="196" width="9.109375" style="35"/>
+    <col min="197" max="197" width="9.109375" style="35" collapsed="1"/>
+    <col min="198" max="204" width="9.109375" style="35"/>
     <col min="205" max="16384" width="9.109375" style="35" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2780,8 +2775,10 @@
       <c r="F1" s="50"/>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
-    </row>
-    <row r="2" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+    </row>
+    <row r="2" spans="1:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
@@ -2790,8 +2787,10 @@
       <c r="F2" s="54"/>
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" s="34" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" s="34" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2808,51 +2807,61 @@
         <v>5</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="E4" s="32" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F4" s="43">
         <v>1</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="47"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>25</v>
@@ -2861,119 +2870,154 @@
         <v>1</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:11" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="47"/>
+      <c r="J5" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F6" s="43">
         <v>1</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H6" s="47"/>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="I7" s="34" t="s">
+      <c r="F7" s="43">
+        <v>1</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H9" s="37" t="s">
+      <c r="J7" s="47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="24"/>
+      <c r="G8" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H10" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="G18" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G10" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G11" s="37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G12" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="55" t="s">
+    </row>
+    <row r="19" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="G19" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="56" t="s">
+    </row>
+    <row r="20" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="G20" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="C22" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>79</v>
-      </c>
+    </row>
+    <row r="21" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="G21" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="G22" s="57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
@@ -3008,7 +3052,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A5:A6">
     <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3016,7 +3060,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A5:A6">
     <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3024,7 +3068,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A5:A6">
     <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3032,7 +3076,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A5:A6">
     <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3040,7 +3084,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3048,7 +3092,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3056,7 +3100,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3064,7 +3108,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3073,16 +3117,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{97BE53CD-10F5-4B65-A481-D9129253028C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7" xr:uid="{97BE53CD-10F5-4B65-A481-D9129253028C}">
       <formula1>"Y,N,End"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6" xr:uid="{CCDA7A78-A04D-4402-B991-2E5BCAB586CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7" xr:uid="{CCDA7A78-A04D-4402-B991-2E5BCAB586CA}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6" xr:uid="{26455790-AA52-4327-A83D-3E6CDDE2F64E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7" xr:uid="{26455790-AA52-4327-A83D-3E6CDDE2F64E}">
       <formula1>"Chrome-Default,Chrome-Headless,Chrome-MAC-Default,Chrome-MAC-Headless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E6" xr:uid="{7DF67D48-D63D-43C5-9073-DA098A501C27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7" xr:uid="{7DF67D48-D63D-43C5-9073-DA098A501C27}">
       <formula1>"TEST,QA,DEV,PROD"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3092,41 +3136,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B96C1F-DFBE-462B-AC9A-B7425C1AEE75}">
-  <dimension ref="D10:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="10" spans="4:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="D10" s="57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D13" s="58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C572FFB1-9F4C-4192-B0F0-904D82E769AD}">
   <dimension ref="A1:BQ6"/>
   <sheetViews>
@@ -3319,16 +3328,16 @@
         <v>11</v>
       </c>
       <c r="H3" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="45" t="s">
+      <c r="K3" s="45" t="s">
         <v>49</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:69" s="34" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -3336,13 +3345,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>25</v>
@@ -3352,10 +3361,10 @@
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>53</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>54</v>
       </c>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -3388,13 +3397,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>25</v>
@@ -3404,10 +3413,10 @@
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="47" t="s">
         <v>53</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>54</v>
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
@@ -3440,13 +3449,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>25</v>
@@ -3576,12 +3585,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86368903-55CA-4C89-B100-02942EE8839F}">
   <dimension ref="A1:BW9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B79FB1-4375-4BD8-BCF2-2B31612AAD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733E5302-5683-42AF-8F28-8C20D3160006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
   <si>
     <t>Execute</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>2021-1-07-V-02</t>
-  </si>
-  <si>
-    <t>Narsing_Test500plus_Polygon1_v2</t>
   </si>
 </sst>
 </file>
@@ -2732,7 +2729,7 @@
   <dimension ref="A1:GV23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2869,9 +2866,7 @@
       <c r="F5" s="43">
         <v>1</v>
       </c>
-      <c r="G5" s="47" t="s">
-        <v>85</v>
-      </c>
+      <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47" t="s">

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733E5302-5683-42AF-8F28-8C20D3160006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3C8132-0DFB-47A5-BAC5-2EB5151080D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>Execute</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>2021-1-07-V-02</t>
+  </si>
+  <si>
+    <t>christy_500_2</t>
   </si>
 </sst>
 </file>
@@ -2729,7 +2732,7 @@
   <dimension ref="A1:GV23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2866,7 +2869,9 @@
       <c r="F5" s="43">
         <v>1</v>
       </c>
-      <c r="G5" s="47"/>
+      <c r="G5" s="47" t="s">
+        <v>85</v>
+      </c>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47" t="s">

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AD5FD2-4546-43AA-8BC9-6920DF0D3872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC56C09E-EECB-427C-9626-FB44CE343695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3045" windowWidth="18840" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18840" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
   <si>
     <t>Execute</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>Home nap view</t>
+  </si>
+  <si>
+    <t>2021-09-08-V-04</t>
+  </si>
+  <si>
+    <t>Events,Created by,Last modified,External name</t>
   </si>
 </sst>
 </file>
@@ -1551,9 +1557,9 @@
   </sheetPr>
   <dimension ref="A1:GU10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2103,7 +2109,9 @@
       <c r="F8" s="50">
         <v>1</v>
       </c>
-      <c r="G8" s="54"/>
+      <c r="G8" s="54" t="s">
+        <v>49</v>
+      </c>
       <c r="H8" s="54"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55" t="s">
@@ -2112,7 +2120,9 @@
       <c r="K8" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="55" t="s">
+        <v>50</v>
+      </c>
       <c r="M8" s="54"/>
       <c r="N8" s="55" t="s">
         <v>45</v>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3C8132-0DFB-47A5-BAC5-2EB5151080D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF84C9BF-6C99-4BE4-8553-4EF1455BB882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -288,7 +288,7 @@
     <t>2021-1-07-V-02</t>
   </si>
   <si>
-    <t>christy_500_2</t>
+    <t>RK3_Mono</t>
   </si>
 </sst>
 </file>
@@ -2025,9 +2025,9 @@
   </sheetPr>
   <dimension ref="A1:GU8"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2731,8 +2731,8 @@
   </sheetPr>
   <dimension ref="A1:GV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2864,7 +2864,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F5" s="43">
         <v>1</v>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF84C9BF-6C99-4BE4-8553-4EF1455BB882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ADAF0B-BE40-4B87-825A-1CD59E3D727B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
   <si>
     <t>Execute</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Isolation Zone Logic</t>
   </si>
   <si>
-    <t>Auto_TP_20210112_120532</t>
-  </si>
-  <si>
     <t>Ram_DEV_CentralA01_3</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>RK3_Mono</t>
+  </si>
+  <si>
+    <t>Auto_TP_20210119_105132</t>
   </si>
 </sst>
 </file>
@@ -2025,9 +2025,9 @@
   </sheetPr>
   <dimension ref="A1:GU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2731,8 +2731,8 @@
   </sheetPr>
   <dimension ref="A1:GV23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2870,12 +2870,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -2889,7 +2889,7 @@
         <v>79</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>66</v>
@@ -2898,11 +2898,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="J6" s="47" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
@@ -2940,7 +2942,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J9" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2950,7 +2952,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E11" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>44</v>
@@ -2969,7 +2971,7 @@
         <v>46</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ADAF0B-BE40-4B87-825A-1CD59E3D727B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D68E57-ECFE-4411-A31E-E368F6779560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
     <t>RK3_Mono</t>
   </si>
   <si>
-    <t>Auto_TP_20210119_105132</t>
+    <t>Auto_TP_20210119_121814</t>
   </si>
 </sst>
 </file>
@@ -2732,7 +2732,7 @@
   <dimension ref="A1:GV23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2903,7 +2903,7 @@
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D68E57-ECFE-4411-A31E-E368F6779560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A8D411-0895-4389-AA08-678380B1E8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2731,8 +2731,8 @@
   </sheetPr>
   <dimension ref="A1:GV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A8D411-0895-4389-AA08-678380B1E8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D265625-640A-41EC-B27F-E79B29367EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>Execute</t>
   </si>
@@ -249,15 +249,9 @@
     <t>Test500plus_Polygon1</t>
   </si>
   <si>
-    <t>Test_Auto_vTest_MetCase3TP6_Polygon</t>
-  </si>
-  <si>
     <t>Upload DefCircuits FileName</t>
   </si>
   <si>
-    <t>Scope TimePlace Name</t>
-  </si>
-  <si>
     <t>2020-14-10-V-01</t>
   </si>
   <si>
@@ -276,9 +270,6 @@
     <t>Ram_DEV_CentralA01_3</t>
   </si>
   <si>
-    <t>2020-12-10-V-01</t>
-  </si>
-  <si>
     <t>2020-11-07-V-01</t>
   </si>
   <si>
@@ -289,13 +280,28 @@
   </si>
   <si>
     <t>Auto_TP_20210119_121814</t>
+  </si>
+  <si>
+    <t>test_data_create_circuit_info_file.py</t>
+  </si>
+  <si>
+    <t>Circuit Info File Generation Logic</t>
+  </si>
+  <si>
+    <t>2020-11-07-TP-01</t>
+  </si>
+  <si>
+    <t>TimePlace ID</t>
+  </si>
+  <si>
+    <t>Auto_TP_20210121_134458</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,12 +382,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -670,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -741,9 +741,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -765,7 +762,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -789,10 +786,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,10 +829,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -845,7 +842,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2032,31 +2113,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.109375" style="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="35" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.44140625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="37" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="37" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" style="37" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="37" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="37" customWidth="1"/>
-    <col min="14" max="14" width="21" style="34" customWidth="1"/>
-    <col min="15" max="92" width="9.109375" style="34"/>
-    <col min="93" max="147" width="9.109375" style="35"/>
-    <col min="148" max="148" width="9.109375" style="35" collapsed="1"/>
-    <col min="149" max="186" width="9.109375" style="35"/>
-    <col min="187" max="187" width="9.109375" style="35" collapsed="1"/>
-    <col min="188" max="191" width="9.109375" style="35"/>
-    <col min="192" max="192" width="9.109375" style="35" collapsed="1"/>
-    <col min="193" max="194" width="9.109375" style="35"/>
-    <col min="195" max="195" width="9.109375" style="35" collapsed="1"/>
-    <col min="196" max="203" width="9.109375" style="35"/>
-    <col min="204" max="16384" width="9.109375" style="35" collapsed="1"/>
+    <col min="1" max="1" width="13.109375" style="36" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.109375" style="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.109375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="34" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="36" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" style="36" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="21" style="33" customWidth="1"/>
+    <col min="15" max="92" width="9.109375" style="33"/>
+    <col min="93" max="147" width="9.109375" style="34"/>
+    <col min="148" max="148" width="9.109375" style="34" collapsed="1"/>
+    <col min="149" max="186" width="9.109375" style="34"/>
+    <col min="187" max="187" width="9.109375" style="34" collapsed="1"/>
+    <col min="188" max="191" width="9.109375" style="34"/>
+    <col min="192" max="192" width="9.109375" style="34" collapsed="1"/>
+    <col min="193" max="194" width="9.109375" style="34"/>
+    <col min="195" max="195" width="9.109375" style="34" collapsed="1"/>
+    <col min="196" max="203" width="9.109375" style="34"/>
+    <col min="204" max="16384" width="9.109375" style="34" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:92" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -2069,7 +2150,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="46"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -2163,15 +2244,15 @@
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -2258,7 +2339,7 @@
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -2267,10 +2348,10 @@
       <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="44" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -2298,7 +2379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:92" s="34" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:92" s="33" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2311,59 +2392,59 @@
       <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="42">
         <v>1</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="25" t="s">
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
-    </row>
-    <row r="5" spans="1:92" s="34" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="24"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+    </row>
+    <row r="5" spans="1:92" s="33" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -2376,61 +2457,61 @@
       <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <v>1</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48" t="s">
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-    </row>
-    <row r="6" spans="1:92" s="34" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="47"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+    </row>
+    <row r="6" spans="1:92" s="33" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
@@ -2443,59 +2524,59 @@
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <v>1</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48" t="s">
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="33"/>
-      <c r="AO6" s="33"/>
-      <c r="AP6" s="33"/>
-      <c r="AQ6" s="33"/>
-    </row>
-    <row r="7" spans="1:92" s="34" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="47"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+    </row>
+    <row r="7" spans="1:92" s="33" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
@@ -2508,200 +2589,200 @@
       <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <v>1</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48" t="s">
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="33"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
     </row>
     <row r="8" spans="1:92" s="2" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="79" priority="381" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="381" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="382" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="77" priority="379" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="379" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="380" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="75" priority="377" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="377" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="378" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="73" priority="375" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="375" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="376" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="71" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="69" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="67" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="65" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="63" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="59" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2729,75 +2810,75 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:GV23"/>
+  <dimension ref="A1:GV22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" style="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.109375" style="39" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="35" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="12" style="38" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" style="34" customWidth="1"/>
-    <col min="11" max="85" width="9.109375" style="34"/>
-    <col min="86" max="140" width="9.109375" style="35"/>
-    <col min="141" max="141" width="9.109375" style="35" collapsed="1"/>
-    <col min="142" max="179" width="9.109375" style="35"/>
-    <col min="180" max="180" width="9.109375" style="35" collapsed="1"/>
-    <col min="181" max="184" width="9.109375" style="35"/>
-    <col min="185" max="185" width="9.109375" style="35" collapsed="1"/>
-    <col min="186" max="187" width="9.109375" style="35"/>
-    <col min="188" max="188" width="9.109375" style="35" collapsed="1"/>
-    <col min="189" max="196" width="9.109375" style="35"/>
-    <col min="197" max="197" width="9.109375" style="35" collapsed="1"/>
-    <col min="198" max="204" width="9.109375" style="35"/>
-    <col min="205" max="16384" width="9.109375" style="35" collapsed="1"/>
+    <col min="1" max="1" width="12" style="36" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.109375" style="38" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.109375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="34" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.6640625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="12" style="37" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" style="33" customWidth="1"/>
+    <col min="11" max="85" width="9.109375" style="33"/>
+    <col min="86" max="140" width="9.109375" style="34"/>
+    <col min="141" max="141" width="9.109375" style="34" collapsed="1"/>
+    <col min="142" max="179" width="9.109375" style="34"/>
+    <col min="180" max="180" width="9.109375" style="34" collapsed="1"/>
+    <col min="181" max="184" width="9.109375" style="34"/>
+    <col min="185" max="185" width="9.109375" style="34" collapsed="1"/>
+    <col min="186" max="187" width="9.109375" style="34"/>
+    <col min="188" max="188" width="9.109375" style="34" collapsed="1"/>
+    <col min="189" max="196" width="9.109375" style="34"/>
+    <col min="197" max="197" width="9.109375" style="34" collapsed="1"/>
+    <col min="198" max="204" width="9.109375" style="34"/>
+    <col min="205" max="16384" width="9.109375" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:86" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="1:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+    </row>
+    <row r="2" spans="1:86" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" s="34" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="53"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:86" s="33" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -2806,23 +2887,23 @@
       <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="44" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2835,22 +2916,22 @@
       <c r="D4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="42">
         <v>1</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="46"/>
+    </row>
+    <row r="5" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -2863,50 +2944,50 @@
       <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <v>1</v>
       </c>
-      <c r="G5" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <v>1</v>
       </c>
-      <c r="G6" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
@@ -2919,110 +3000,160 @@
       <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <v>1</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="G8" s="47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J9" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H10" s="37" t="s">
+      <c r="J7" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="42">
+        <v>1</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH8" s="33"/>
+    </row>
+    <row r="9" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="H9" s="36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E11" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="37" t="s">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="E10" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="37" t="s">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="B11" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G13" s="37" t="s">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="G12" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="G17" s="38" t="s">
+      <c r="J12" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="G16" s="37" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="G17" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
-      <c r="G18" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>64</v>
+      <c r="G18" s="37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="G19" s="38" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="G19" s="37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="G20" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="G20" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="21" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="G21" s="37" t="s">
-        <v>70</v>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="G21" s="56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="G22" s="57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="55" priority="31" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="53" priority="29" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="30" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="49" priority="25" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A6">
     <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3030,7 +3161,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5:A6">
     <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3038,7 +3169,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5:A6">
     <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3046,7 +3177,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5:A6">
     <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3054,7 +3185,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3062,7 +3193,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3070,7 +3201,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3078,7 +3209,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3086,7 +3217,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A8">
     <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3094,7 +3225,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A8">
     <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3102,7 +3233,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A8">
     <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3110,7 +3241,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A8">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3119,16 +3250,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7" xr:uid="{97BE53CD-10F5-4B65-A481-D9129253028C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A8" xr:uid="{97BE53CD-10F5-4B65-A481-D9129253028C}">
       <formula1>"Y,N,End"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7" xr:uid="{CCDA7A78-A04D-4402-B991-2E5BCAB586CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F8" xr:uid="{CCDA7A78-A04D-4402-B991-2E5BCAB586CA}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7" xr:uid="{26455790-AA52-4327-A83D-3E6CDDE2F64E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8" xr:uid="{26455790-AA52-4327-A83D-3E6CDDE2F64E}">
       <formula1>"Chrome-Default,Chrome-Headless,Chrome-MAC-Default,Chrome-MAC-Headless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7" xr:uid="{7DF67D48-D63D-43C5-9073-DA098A501C27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E8" xr:uid="{7DF67D48-D63D-43C5-9073-DA098A501C27}">
       <formula1>"TEST,QA,DEV,PROD"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3147,174 +3278,174 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="44"/>
-    <col min="2" max="2" width="35.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="44"/>
-    <col min="6" max="6" width="8.5546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="44" customWidth="1"/>
-    <col min="11" max="11" width="10" style="44" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="44"/>
+    <col min="1" max="1" width="8.88671875" style="43"/>
+    <col min="2" max="2" width="35.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="43"/>
+    <col min="6" max="6" width="8.5546875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="43" customWidth="1"/>
+    <col min="11" max="11" width="10" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:69" s="34" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="34"/>
-    </row>
-    <row r="2" spans="1:69" s="35" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="33"/>
+      <c r="BP1" s="33"/>
+      <c r="BQ1" s="33"/>
+    </row>
+    <row r="2" spans="1:69" s="34" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="34"/>
-      <c r="BE2" s="34"/>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="34"/>
-      <c r="BJ2" s="34"/>
-      <c r="BK2" s="34"/>
-      <c r="BL2" s="34"/>
-      <c r="BM2" s="34"/>
-      <c r="BN2" s="34"/>
-      <c r="BO2" s="34"/>
-      <c r="BP2" s="34"/>
-      <c r="BQ2" s="34"/>
-    </row>
-    <row r="3" spans="1:69" s="34" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="53"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="33"/>
+      <c r="BF2" s="33"/>
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="33"/>
+      <c r="BL2" s="33"/>
+      <c r="BM2" s="33"/>
+      <c r="BN2" s="33"/>
+      <c r="BO2" s="33"/>
+      <c r="BP2" s="33"/>
+      <c r="BQ2" s="33"/>
+    </row>
+    <row r="3" spans="1:69" s="33" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -3323,26 +3454,26 @@
       <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="34" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" s="33" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -3355,46 +3486,46 @@
       <c r="D4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="42">
         <v>1</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-    </row>
-    <row r="5" spans="1:69" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+    </row>
+    <row r="5" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -3407,44 +3538,44 @@
       <c r="D5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <v>1</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
@@ -3459,17 +3590,17 @@
       <c r="D6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <v>1</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
@@ -3618,13 +3749,13 @@
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="30"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -3695,13 +3826,13 @@
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -3782,65 +3913,65 @@
       <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:75" s="2" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D265625-640A-41EC-B27F-E79B29367EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4FA1A8-8467-4839-8DA2-527556465BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
   <si>
     <t>Execute</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Upload DefCircuits FileName</t>
   </si>
   <si>
-    <t>2020-14-10-V-01</t>
-  </si>
-  <si>
     <t>No of TPs to be created</t>
   </si>
   <si>
@@ -273,15 +270,9 @@
     <t>2020-11-07-V-01</t>
   </si>
   <si>
-    <t>2021-1-07-V-02</t>
-  </si>
-  <si>
     <t>RK3_Mono</t>
   </si>
   <si>
-    <t>Auto_TP_20210119_121814</t>
-  </si>
-  <si>
     <t>test_data_create_circuit_info_file.py</t>
   </si>
   <si>
@@ -295,6 +286,12 @@
   </si>
   <si>
     <t>Auto_TP_20210121_134458</t>
+  </si>
+  <si>
+    <t>2020-12-10-TP-01</t>
+  </si>
+  <si>
+    <t>Auto_TP_20210121_215623</t>
   </si>
 </sst>
 </file>
@@ -2813,7 +2810,7 @@
   <dimension ref="A1:GV22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2888,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>60</v>
@@ -2900,7 +2897,7 @@
         <v>72</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -2951,12 +2948,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -2964,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
@@ -2979,12 +2976,12 @@
         <v>1</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
       <c r="J6" s="46" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -3012,7 +3009,7 @@
         <v>67</v>
       </c>
       <c r="J7" s="46" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
@@ -3020,10 +3017,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>17</v>
@@ -3035,12 +3032,12 @@
         <v>1</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
       <c r="J8" s="46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="CH8" s="33"/>
     </row>
@@ -3051,7 +3048,7 @@
     </row>
     <row r="10" spans="1:86" x14ac:dyDescent="0.3">
       <c r="E10" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>44</v>
@@ -3059,7 +3056,7 @@
     </row>
     <row r="11" spans="1:86" x14ac:dyDescent="0.3">
       <c r="B11" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>45</v>
@@ -3070,7 +3067,7 @@
         <v>46</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:86" x14ac:dyDescent="0.3">

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4FA1A8-8467-4839-8DA2-527556465BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF3A1F7-D6D0-41F3-ACB3-488A826E055C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:GV22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2911,7 +2911,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>66</v>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="46" t="s">

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF3A1F7-D6D0-41F3-ACB3-488A826E055C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4967008F-8A68-41A5-8E64-3A77D677D89E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>Execute</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>Auto_TP_20210121_215623</t>
+  </si>
+  <si>
+    <t>Auto_TP_20210121_225550</t>
   </si>
 </sst>
 </file>
@@ -2810,7 +2813,7 @@
   <dimension ref="A1:GV22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3003,13 +3006,13 @@
       <c r="F7" s="42">
         <v>1</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="46" t="s">
+        <v>87</v>
+      </c>
       <c r="H7" s="46"/>
-      <c r="I7" s="46" t="s">
-        <v>67</v>
-      </c>
+      <c r="I7" s="46"/>
       <c r="J7" s="46" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4967008F-8A68-41A5-8E64-3A77D677D89E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA56509-450F-4FA5-BDD5-EDA4A1351439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
   <si>
     <t>Execute</t>
   </si>
@@ -165,15 +165,6 @@
     <t>Chrome-Headless</t>
   </si>
   <si>
-    <t>timeplacetest_central</t>
-  </si>
-  <si>
-    <t>parentchild_feeder_test2</t>
-  </si>
-  <si>
-    <t>feederfed_test1</t>
-  </si>
-  <si>
     <t>FileName1</t>
   </si>
   <si>
@@ -219,33 +210,15 @@
     <t>Default Device Logic</t>
   </si>
   <si>
-    <t>Test_devicecheck</t>
-  </si>
-  <si>
     <t>test_data_defaultdevicecheck.py</t>
   </si>
   <si>
-    <t>TP1_Automation</t>
-  </si>
-  <si>
-    <t>Merge_Polygon_Test1</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
     <t>defaultcircuits_output.csv</t>
   </si>
   <si>
-    <t>Test_Auto_Test_CentralA01</t>
-  </si>
-  <si>
-    <t>Test_Auto_Test_18MAYTP1_Polygon</t>
-  </si>
-  <si>
-    <t>Test_Auto_LastYearBig_Polygon</t>
-  </si>
-  <si>
     <t>Test500plus_Polygon1</t>
   </si>
   <si>
@@ -264,15 +237,6 @@
     <t>Isolation Zone Logic</t>
   </si>
   <si>
-    <t>Ram_DEV_CentralA01_3</t>
-  </si>
-  <si>
-    <t>2020-11-07-V-01</t>
-  </si>
-  <si>
-    <t>RK3_Mono</t>
-  </si>
-  <si>
     <t>test_data_create_circuit_info_file.py</t>
   </si>
   <si>
@@ -285,16 +249,52 @@
     <t>TimePlace ID</t>
   </si>
   <si>
-    <t>Auto_TP_20210121_134458</t>
-  </si>
-  <si>
     <t>2020-12-10-TP-01</t>
   </si>
   <si>
-    <t>Auto_TP_20210121_215623</t>
-  </si>
-  <si>
-    <t>Auto_TP_20210121_225550</t>
+    <t>2020-14-10-TP-01</t>
+  </si>
+  <si>
+    <t>Auto_TP_20210202_104759</t>
+  </si>
+  <si>
+    <t>245Cir_Polygon</t>
+  </si>
+  <si>
+    <t>Merge_Polygon</t>
+  </si>
+  <si>
+    <t>530_Polygon</t>
+  </si>
+  <si>
+    <t>2020-13-10-TP-01</t>
+  </si>
+  <si>
+    <t>Test_CentralA01</t>
+  </si>
+  <si>
+    <t>Test_MetCase5_Polygon</t>
+  </si>
+  <si>
+    <t>2020-11-06-TP-01</t>
+  </si>
+  <si>
+    <t>Test_Feederfedby</t>
+  </si>
+  <si>
+    <t>2020-11-03-TP-11</t>
+  </si>
+  <si>
+    <t>2019-11-16-TP-01</t>
+  </si>
+  <si>
+    <t>LastYearBig_Polygon</t>
+  </si>
+  <si>
+    <t>2019-1-08-TP-01</t>
+  </si>
+  <si>
+    <t>Auto_TP_20210202_141853</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,12 +473,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -670,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -834,9 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2393,14 +2384,14 @@
         <v>17</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F4" s="42">
         <v>1</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="47" t="s">
@@ -2458,14 +2449,14 @@
         <v>17</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I5" s="47" t="s">
         <v>36</v>
@@ -2525,14 +2516,14 @@
         <v>17</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="47" t="s">
@@ -2590,7 +2581,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F7" s="42">
         <v>1</v>
@@ -2810,10 +2801,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:GV22"/>
+  <dimension ref="A1:GV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2888,19 +2879,19 @@
         <v>5</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -2917,18 +2908,16 @@
         <v>17</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F4" s="42">
         <v>1</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H4" s="46"/>
-      <c r="I4" s="46" t="s">
-        <v>67</v>
-      </c>
+      <c r="I4" s="46"/>
       <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -2936,27 +2925,27 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -2964,27 +2953,27 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
       <c r="J6" s="46" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -2992,16 +2981,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F7" s="42">
         <v>1</v>
@@ -3012,7 +3001,7 @@
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
       <c r="J7" s="46" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
@@ -3020,105 +3009,180 @@
         <v>3</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F8" s="42">
         <v>1</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="I8" s="46" t="s">
+        <v>61</v>
+      </c>
       <c r="J8" s="46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="CH8" s="33"/>
     </row>
     <row r="9" spans="1:86" x14ac:dyDescent="0.3">
-      <c r="H9" s="36" t="s">
-        <v>62</v>
-      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:86" x14ac:dyDescent="0.3">
-      <c r="E10" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:86" x14ac:dyDescent="0.3">
       <c r="B11" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.3">
-      <c r="G12" s="36" t="s">
-        <v>46</v>
+      <c r="J11" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:86" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="J12" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="33" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="14" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="16" spans="1:86" x14ac:dyDescent="0.3">
-      <c r="G16" s="37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="G17" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="G18" s="37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="G19" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="G20" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="G21" s="56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
@@ -3461,16 +3525,16 @@
         <v>11</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I3" s="44" t="s">
         <v>35</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:69" s="33" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -3478,10 +3542,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>43</v>
@@ -3494,10 +3558,10 @@
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J4" s="46"/>
       <c r="K4" s="46"/>
@@ -3530,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>43</v>
@@ -3546,10 +3610,10 @@
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J5" s="46"/>
       <c r="K5" s="46"/>
@@ -3582,10 +3646,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>43</v>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA56509-450F-4FA5-BDD5-EDA4A1351439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30DEEBF-9ADF-4EF5-9E5B-DEFECA68116B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2803,8 +2803,8 @@
   </sheetPr>
   <dimension ref="A1:GV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2995,13 +2995,13 @@
       <c r="F7" s="42">
         <v>1</v>
       </c>
-      <c r="G7" s="46" t="s">
-        <v>87</v>
-      </c>
+      <c r="G7" s="46"/>
       <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="I7" s="46" t="s">
+        <v>61</v>
+      </c>
       <c r="J7" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30DEEBF-9ADF-4EF5-9E5B-DEFECA68116B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B5450B-0D12-48BD-A6C3-F05C0C2EB4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
   <si>
     <t>Execute</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>Auto_TP_20210202_141853</t>
+  </si>
+  <si>
+    <t>2020-11-04-TP-01</t>
+  </si>
+  <si>
+    <t>18MAYTP1_Polygon_auto</t>
   </si>
 </sst>
 </file>
@@ -2804,7 +2810,7 @@
   <dimension ref="A1:GV23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2914,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
@@ -2940,12 +2946,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -2968,12 +2974,12 @@
         <v>1</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
       <c r="J6" s="46" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -2995,7 +3001,9 @@
       <c r="F7" s="42">
         <v>1</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="46" t="s">
+        <v>89</v>
+      </c>
       <c r="H7" s="46"/>
       <c r="I7" s="46" t="s">
         <v>61</v>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B5450B-0D12-48BD-A6C3-F05C0C2EB4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B225E-64C0-4299-A3C9-60897194C9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
   <si>
     <t>Execute</t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>2020-14-10-TP-01</t>
-  </si>
-  <si>
-    <t>Auto_TP_20210202_104759</t>
   </si>
   <si>
     <t>245Cir_Polygon</t>
@@ -2810,7 +2807,7 @@
   <dimension ref="A1:GV23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2920,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
@@ -2946,12 +2943,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -2974,12 +2971,12 @@
         <v>1</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
       <c r="J6" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -3002,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="46" t="s">
@@ -3032,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H8" s="46"/>
       <c r="I8" s="46" t="s">
@@ -3064,7 +3061,7 @@
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="I11" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>72</v>
@@ -3075,10 +3072,10 @@
       <c r="E12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>73</v>
@@ -3090,10 +3087,10 @@
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="33" t="s">
         <v>77</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:86" x14ac:dyDescent="0.3">
@@ -3102,7 +3099,7 @@
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>70</v>
@@ -3114,10 +3111,10 @@
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="33" t="s">
         <v>80</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:86" x14ac:dyDescent="0.3">
@@ -3126,10 +3123,10 @@
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="33" t="s">
         <v>82</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
@@ -3139,10 +3136,10 @@
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
@@ -3155,7 +3152,7 @@
         <v>62</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B225E-64C0-4299-A3C9-60897194C9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE45169-6919-46FC-B236-8152BE6614C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
   <si>
     <t>Execute</t>
   </si>
@@ -213,9 +213,6 @@
     <t>test_data_defaultdevicecheck.py</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>defaultcircuits_output.csv</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
     <t>2020-14-10-TP-01</t>
   </si>
   <si>
+    <t>Auto_TP_20210202_104759</t>
+  </si>
+  <si>
     <t>245Cir_Polygon</t>
   </si>
   <si>
@@ -294,17 +294,35 @@
     <t>Auto_TP_20210202_141853</t>
   </si>
   <si>
-    <t>2020-11-04-TP-01</t>
-  </si>
-  <si>
-    <t>18MAYTP1_Polygon_auto</t>
+    <t>2021-09-08-TP-01</t>
+  </si>
+  <si>
+    <t>0224_Normalcircuit_SmokeTest</t>
+  </si>
+  <si>
+    <t>tst-123</t>
+  </si>
+  <si>
+    <t>test_psps_ui_create_event.py</t>
+  </si>
+  <si>
+    <t>Time places,Stage,Status,Tied to event,Created by,Last modified,External name</t>
+  </si>
+  <si>
+    <t>Create event</t>
+  </si>
+  <si>
+    <t>Event validate circuit file</t>
+  </si>
+  <si>
+    <t>test_psps_ui_eventmanagement_circuit_validation.py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +439,20 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -667,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -831,12 +863,183 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="104">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2098,43 +2301,43 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:GU8"/>
+  <dimension ref="A1:GU10"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="36" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.109375" style="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.109375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="34" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="37" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.44140625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="36" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" style="36" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="36" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.140625" style="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.140625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="36" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="36" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="36" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="36" customWidth="1"/>
     <col min="14" max="14" width="21" style="33" customWidth="1"/>
-    <col min="15" max="92" width="9.109375" style="33"/>
-    <col min="93" max="147" width="9.109375" style="34"/>
-    <col min="148" max="148" width="9.109375" style="34" collapsed="1"/>
-    <col min="149" max="186" width="9.109375" style="34"/>
-    <col min="187" max="187" width="9.109375" style="34" collapsed="1"/>
-    <col min="188" max="191" width="9.109375" style="34"/>
-    <col min="192" max="192" width="9.109375" style="34" collapsed="1"/>
-    <col min="193" max="194" width="9.109375" style="34"/>
-    <col min="195" max="195" width="9.109375" style="34" collapsed="1"/>
-    <col min="196" max="203" width="9.109375" style="34"/>
-    <col min="204" max="16384" width="9.109375" style="34" collapsed="1"/>
+    <col min="15" max="92" width="9.140625" style="33"/>
+    <col min="93" max="147" width="9.140625" style="34"/>
+    <col min="148" max="148" width="9.140625" style="34" collapsed="1"/>
+    <col min="149" max="186" width="9.140625" style="34"/>
+    <col min="187" max="187" width="9.140625" style="34" collapsed="1"/>
+    <col min="188" max="191" width="9.140625" style="34"/>
+    <col min="192" max="192" width="9.140625" style="34" collapsed="1"/>
+    <col min="193" max="194" width="9.140625" style="34"/>
+    <col min="195" max="195" width="9.140625" style="34" collapsed="1"/>
+    <col min="196" max="203" width="9.140625" style="34"/>
+    <col min="204" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:92" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2232,7 +2435,7 @@
       <c r="CM1" s="2"/>
       <c r="CN1" s="2"/>
     </row>
-    <row r="2" spans="1:92" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:92" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -2326,7 +2529,7 @@
       <c r="CM2" s="2"/>
       <c r="CN2" s="2"/>
     </row>
-    <row r="3" spans="1:92" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:92" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:92" s="33" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:92" s="33" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2387,14 +2590,14 @@
         <v>17</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F4" s="42">
         <v>1</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="47" t="s">
@@ -2438,7 +2641,7 @@
       <c r="AP4" s="32"/>
       <c r="AQ4" s="32"/>
     </row>
-    <row r="5" spans="1:92" s="33" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:92" s="33" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -2452,14 +2655,14 @@
         <v>17</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="47" t="s">
         <v>36</v>
@@ -2505,7 +2708,7 @@
       <c r="AP5" s="32"/>
       <c r="AQ5" s="32"/>
     </row>
-    <row r="6" spans="1:92" s="33" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:92" s="33" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
@@ -2519,14 +2722,14 @@
         <v>17</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="47" t="s">
@@ -2570,7 +2773,7 @@
       <c r="AP6" s="32"/>
       <c r="AQ6" s="32"/>
     </row>
-    <row r="7" spans="1:92" s="33" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:92" s="33" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
@@ -2584,7 +2787,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F7" s="42">
         <v>1</v>
@@ -2633,90 +2836,284 @@
       <c r="AP7" s="32"/>
       <c r="AQ7" s="32"/>
     </row>
-    <row r="8" spans="1:92" s="2" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="42"/>
+    <row r="8" spans="1:92" s="33" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="42">
+        <v>1</v>
+      </c>
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>91</v>
+      </c>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
+      <c r="N8" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="47"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+    </row>
+    <row r="9" spans="1:92" s="33" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="42">
+        <v>1</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="47"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+    </row>
+    <row r="10" spans="1:92" s="2" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="87" priority="381" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="405" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="406" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="85" priority="379" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="403" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="404" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="83" priority="377" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="401" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="402" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="81" priority="375" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="399" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="400" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="79" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="47" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="48" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="77" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="45" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="46" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="75" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="43" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="44" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="73" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="41" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="42" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="87" priority="39" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="40" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="85" priority="37" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="38" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="83" priority="35" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="36" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="81" priority="33" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="34" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="79" priority="31" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="32" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="77" priority="29" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="30" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="75" priority="27" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="28" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="73" priority="25" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="26" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
     <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2724,7 +3121,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A8">
     <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2732,7 +3129,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A8">
     <cfRule type="cellIs" dxfId="67" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2740,7 +3137,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A8">
     <cfRule type="cellIs" dxfId="65" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2748,7 +3145,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2756,7 +3153,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2764,7 +3161,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2772,7 +3169,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2781,16 +3178,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7" xr:uid="{3B1CCEEA-3289-44C8-9D1D-04599A1B1D40}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E9" xr:uid="{3B1CCEEA-3289-44C8-9D1D-04599A1B1D40}">
       <formula1>"TEST,QA,DEV,PROD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7" xr:uid="{2C0620C3-AC94-442D-A0A9-232665619B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D9" xr:uid="{2C0620C3-AC94-442D-A0A9-232665619B8E}">
       <formula1>"Chrome-Default,Chrome-Headless,Chrome-MAC-Default,Chrome-MAC-Headless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7" xr:uid="{5B503B92-99F5-49E9-AAB9-A55EE2349403}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F9" xr:uid="{5B503B92-99F5-49E9-AAB9-A55EE2349403}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7" xr:uid="{6EA13E7D-46C4-4E6E-8A6E-850237CC6134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A9" xr:uid="{6EA13E7D-46C4-4E6E-8A6E-850237CC6134}">
       <formula1>"Y,N,End"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2806,38 +3203,38 @@
   </sheetPr>
   <dimension ref="A1:GV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.109375" style="38" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.109375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="34" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="38" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.140625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" style="36" customWidth="1"/>
     <col min="6" max="6" width="12" style="37" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" style="33" customWidth="1"/>
-    <col min="11" max="85" width="9.109375" style="33"/>
-    <col min="86" max="140" width="9.109375" style="34"/>
-    <col min="141" max="141" width="9.109375" style="34" collapsed="1"/>
-    <col min="142" max="179" width="9.109375" style="34"/>
-    <col min="180" max="180" width="9.109375" style="34" collapsed="1"/>
-    <col min="181" max="184" width="9.109375" style="34"/>
-    <col min="185" max="185" width="9.109375" style="34" collapsed="1"/>
-    <col min="186" max="187" width="9.109375" style="34"/>
-    <col min="188" max="188" width="9.109375" style="34" collapsed="1"/>
-    <col min="189" max="196" width="9.109375" style="34"/>
-    <col min="197" max="197" width="9.109375" style="34" collapsed="1"/>
-    <col min="198" max="204" width="9.109375" style="34"/>
-    <col min="205" max="16384" width="9.109375" style="34" collapsed="1"/>
+    <col min="7" max="7" width="33.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="33" customWidth="1"/>
+    <col min="11" max="85" width="9.140625" style="33"/>
+    <col min="86" max="140" width="9.140625" style="34"/>
+    <col min="141" max="141" width="9.140625" style="34" collapsed="1"/>
+    <col min="142" max="179" width="9.140625" style="34"/>
+    <col min="180" max="180" width="9.140625" style="34" collapsed="1"/>
+    <col min="181" max="184" width="9.140625" style="34"/>
+    <col min="185" max="185" width="9.140625" style="34" collapsed="1"/>
+    <col min="186" max="187" width="9.140625" style="34"/>
+    <col min="188" max="188" width="9.140625" style="34" collapsed="1"/>
+    <col min="189" max="196" width="9.140625" style="34"/>
+    <col min="197" max="197" width="9.140625" style="34" collapsed="1"/>
+    <col min="198" max="204" width="9.140625" style="34"/>
+    <col min="205" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:86" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2853,7 +3250,7 @@
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
     </row>
-    <row r="2" spans="1:86" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:86" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
@@ -2865,7 +3262,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
     </row>
-    <row r="3" spans="1:86" s="33" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:86" s="33" customFormat="1" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2882,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>57</v>
@@ -2891,13 +3288,13 @@
         <v>9</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:86" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2911,7 +3308,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F4" s="42">
         <v>1</v>
@@ -2923,7 +3320,7 @@
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
     </row>
-    <row r="5" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:86" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -2937,35 +3334,33 @@
         <v>17</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
-      <c r="J5" s="46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="1:86" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
@@ -2975,11 +3370,9 @@
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
-      <c r="J6" s="46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:86" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="46"/>
+    </row>
+    <row r="7" spans="1:86" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
@@ -2993,7 +3386,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F7" s="42">
         <v>1</v>
@@ -3003,27 +3396,25 @@
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" spans="1:86" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F8" s="42">
         <v>1</v>
@@ -3033,28 +3424,26 @@
       </c>
       <c r="H8" s="46"/>
       <c r="I8" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>73</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J8" s="46"/>
       <c r="CH8" s="33"/>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -3064,10 +3453,10 @@
         <v>74</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:86" ht="27.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:86" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="G12" s="37"/>
@@ -3078,10 +3467,10 @@
         <v>75</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="G13" s="37"/>
@@ -3093,7 +3482,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
       <c r="G14" s="37"/>
@@ -3102,10 +3491,10 @@
         <v>78</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="G15" s="37"/>
@@ -3117,7 +3506,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="G16" s="37"/>
@@ -3129,7 +3518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C17" s="54"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -3142,54 +3531,61 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C18" s="55"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C19" s="55"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
     </row>
-    <row r="20" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C20" s="55"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-    </row>
-    <row r="21" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="J20" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C21" s="55"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
     </row>
-    <row r="22" spans="3:10" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C22" s="55"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="A4">
     <cfRule type="cellIs" dxfId="55" priority="31" operator="equal">
       <formula>"Y"</formula>
@@ -3345,23 +3741,23 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="43"/>
-    <col min="2" max="2" width="35.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="43"/>
-    <col min="6" max="6" width="8.5546875" style="43" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="43" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="43"/>
+    <col min="2" max="2" width="35.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="43"/>
+    <col min="6" max="6" width="8.5703125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="43" customWidth="1"/>
     <col min="11" max="11" width="10" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="43"/>
+    <col min="12" max="16384" width="8.85546875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="34" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:69" s="34" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -3436,7 +3832,7 @@
       <c r="BP1" s="33"/>
       <c r="BQ1" s="33"/>
     </row>
-    <row r="2" spans="1:69" s="34" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:69" s="34" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
@@ -3507,7 +3903,7 @@
       <c r="BP2" s="33"/>
       <c r="BQ2" s="33"/>
     </row>
-    <row r="3" spans="1:69" s="33" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:69" s="33" customFormat="1" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -3542,7 +3938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="33" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" s="33" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -3594,7 +3990,7 @@
       <c r="AG4" s="32"/>
       <c r="AH4" s="32"/>
     </row>
-    <row r="5" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -3646,7 +4042,7 @@
       <c r="AG5" s="32"/>
       <c r="AH5" s="32"/>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
@@ -3795,20 +4191,20 @@
       <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -3889,7 +4285,7 @@
       <c r="BV1" s="2"/>
       <c r="BW1" s="2"/>
     </row>
-    <row r="2" spans="1:75" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:75" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -3966,7 +4362,7 @@
       <c r="BV2" s="2"/>
       <c r="BW2" s="2"/>
     </row>
-    <row r="3" spans="1:75" s="2" customFormat="1" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" s="2" customFormat="1" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -4004,7 +4400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:75" s="2" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" s="2" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
@@ -4022,23 +4418,23 @@
       <c r="M4" s="46"/>
       <c r="N4" s="46"/>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K5" s="43"/>
       <c r="L5" s="43"/>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K6" s="43"/>
       <c r="L6" s="43"/>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K7" s="43"/>
       <c r="L7" s="43"/>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
     </row>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE45169-6919-46FC-B236-8152BE6614C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C26057-E032-43C7-BB8B-086ABB35728D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="20490" windowHeight="8985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
   <si>
     <t>Execute</t>
   </si>
@@ -300,9 +300,6 @@
     <t>0224_Normalcircuit_SmokeTest</t>
   </si>
   <si>
-    <t>tst-123</t>
-  </si>
-  <si>
     <t>test_psps_ui_create_event.py</t>
   </si>
   <si>
@@ -316,6 +313,24 @@
   </si>
   <si>
     <t>test_psps_ui_eventmanagement_circuit_validation.py</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>1567_NormalCirTest</t>
+  </si>
+  <si>
+    <t>test_psps_ui_timeplace_edit.py</t>
+  </si>
+  <si>
+    <t>Validate timeplace edit</t>
+  </si>
+  <si>
+    <t>em_Valid_Circuits.csv</t>
+  </si>
+  <si>
+    <t>Auto_TP_20210322_170949</t>
   </si>
 </sst>
 </file>
@@ -871,7 +886,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="112">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2301,11 +2400,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:GU10"/>
+  <dimension ref="A1:GU11"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4:E9"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2590,7 +2689,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F4" s="42">
         <v>1</v>
@@ -2655,7 +2754,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
@@ -2722,7 +2821,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
@@ -2787,7 +2886,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F7" s="42">
         <v>1</v>
@@ -2841,16 +2940,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F8" s="42">
         <v>1</v>
@@ -2862,7 +2961,7 @@
         <v>34</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -2904,27 +3003,23 @@
         <v>3</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F9" s="42">
         <v>1</v>
       </c>
       <c r="G9" s="46"/>
-      <c r="H9" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>36</v>
-      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="47" t="s">
         <v>34</v>
       </c>
@@ -2966,58 +3061,159 @@
       <c r="AP9" s="32"/>
       <c r="AQ9" s="32"/>
     </row>
-    <row r="10" spans="1:92" s="2" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
+    <row r="10" spans="1:92" s="33" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="42">
+        <v>1</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>33</v>
+      </c>
       <c r="L10" s="46"/>
       <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
+      <c r="N10" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="47"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+    </row>
+    <row r="11" spans="1:92" s="2" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="103" priority="405" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="413" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="414" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="101" priority="403" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="411" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="412" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="99" priority="401" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="409" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="410" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="97" priority="399" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="407" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="408" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="103" priority="55" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="56" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="101" priority="53" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="54" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="99" priority="51" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="52" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="97" priority="49" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="50" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" dxfId="95" priority="47" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3025,7 +3221,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" dxfId="93" priority="45" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3033,7 +3229,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" dxfId="91" priority="43" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3041,7 +3237,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" dxfId="89" priority="41" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3049,7 +3245,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="87" priority="39" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3057,7 +3253,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="85" priority="37" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3065,7 +3261,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="83" priority="35" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3073,7 +3269,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="81" priority="33" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3081,39 +3277,39 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="79" priority="31" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="32" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="77" priority="29" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="30" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="75" priority="27" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="28" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="73" priority="25" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="26" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="79" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="24" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="77" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="75" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="20" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="73" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="18" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3121,7 +3317,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3129,7 +3325,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="67" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3137,7 +3333,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="65" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3145,49 +3341,49 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="8" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E9" xr:uid="{3B1CCEEA-3289-44C8-9D1D-04599A1B1D40}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E10" xr:uid="{3B1CCEEA-3289-44C8-9D1D-04599A1B1D40}">
       <formula1>"TEST,QA,DEV,PROD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D9" xr:uid="{2C0620C3-AC94-442D-A0A9-232665619B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{2C0620C3-AC94-442D-A0A9-232665619B8E}">
       <formula1>"Chrome-Default,Chrome-Headless,Chrome-MAC-Default,Chrome-MAC-Headless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F9" xr:uid="{5B503B92-99F5-49E9-AAB9-A55EE2349403}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F10" xr:uid="{5B503B92-99F5-49E9-AAB9-A55EE2349403}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A9" xr:uid="{6EA13E7D-46C4-4E6E-8A6E-850237CC6134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A10" xr:uid="{6EA13E7D-46C4-4E6E-8A6E-850237CC6134}">
       <formula1>"Y,N,End"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3203,8 +3399,8 @@
   </sheetPr>
   <dimension ref="A1:GV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3308,7 +3504,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F4" s="42">
         <v>1</v>
@@ -3334,13 +3530,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
@@ -3360,13 +3556,13 @@
         <v>17</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
@@ -3386,7 +3582,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F7" s="42">
         <v>1</v>
@@ -3414,7 +3610,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F8" s="42">
         <v>1</v>
@@ -3587,130 +3783,130 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="55" priority="31" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="53" priority="29" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="27" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="49" priority="25" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="25" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4069,98 +4265,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C26057-E032-43C7-BB8B-086ABB35728D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3271114-0F2C-4F75-A343-682ECFD63FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="20490" windowHeight="8985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="104">
   <si>
     <t>Execute</t>
   </si>
@@ -297,9 +297,6 @@
     <t>2021-09-08-TP-01</t>
   </si>
   <si>
-    <t>0224_Normalcircuit_SmokeTest</t>
-  </si>
-  <si>
     <t>test_psps_ui_create_event.py</t>
   </si>
   <si>
@@ -315,12 +312,6 @@
     <t>test_psps_ui_eventmanagement_circuit_validation.py</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>1567_NormalCirTest</t>
-  </si>
-  <si>
     <t>test_psps_ui_timeplace_edit.py</t>
   </si>
   <si>
@@ -331,6 +322,27 @@
   </si>
   <si>
     <t>Auto_TP_20210322_170949</t>
+  </si>
+  <si>
+    <t>test_psps_ui_eventmanagement_circuit_validation_edit.py</t>
+  </si>
+  <si>
+    <t>dm_DefaultuploadFile.csv</t>
+  </si>
+  <si>
+    <t>WholeHFRA_Polygon_Test_Mar31</t>
+  </si>
+  <si>
+    <t>test_psps_ui_home_mapview.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mapview validation</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>0408_NormalcircuitV2_Test1</t>
   </si>
 </sst>
 </file>
@@ -886,7 +898,175 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="128">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2400,11 +2580,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:GU11"/>
+  <dimension ref="A1:GU13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2689,14 +2869,14 @@
         <v>17</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="F4" s="42">
         <v>1</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="46" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="47" t="s">
@@ -2754,7 +2934,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
@@ -2821,7 +3001,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
@@ -2886,7 +3066,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="F7" s="42">
         <v>1</v>
@@ -2940,16 +3120,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="F8" s="42">
         <v>1</v>
@@ -2961,7 +3141,7 @@
         <v>34</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -3003,16 +3183,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="F9" s="42">
         <v>1</v>
@@ -3066,25 +3246,25 @@
         <v>3</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="F10" s="42">
         <v>1</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I10" s="47" t="s">
         <v>36</v>
@@ -3130,58 +3310,248 @@
       <c r="AP10" s="32"/>
       <c r="AQ10" s="32"/>
     </row>
-    <row r="11" spans="1:92" s="2" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="42"/>
+    <row r="11" spans="1:92" s="33" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="42">
+        <v>1</v>
+      </c>
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>33</v>
+      </c>
       <c r="L11" s="46"/>
       <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
+      <c r="N11" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="47"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+    </row>
+    <row r="12" spans="1:92" s="33" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="42">
+        <v>1</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="47"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+    </row>
+    <row r="13" spans="1:92" s="2" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="111" priority="413" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="429" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="430" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="109" priority="411" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="427" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="428" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="107" priority="409" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="425" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="426" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="105" priority="407" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="423" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="424" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="119" priority="71" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="72" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="117" priority="69" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="70" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="115" priority="67" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="68" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="113" priority="65" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="66" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="111" priority="63" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="64" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="109" priority="61" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="62" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="107" priority="59" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="60" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="105" priority="57" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="58" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="103" priority="55" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3189,7 +3559,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="101" priority="53" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3197,7 +3567,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="99" priority="51" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3205,7 +3575,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" dxfId="97" priority="49" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3213,71 +3583,71 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="95" priority="47" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="48" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="93" priority="45" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="46" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="91" priority="43" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="44" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="89" priority="41" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="42" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="87" priority="39" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="40" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="85" priority="37" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="38" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="83" priority="35" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="36" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="81" priority="33" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="34" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="95" priority="39" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="40" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="93" priority="37" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="38" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="91" priority="35" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="36" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="89" priority="33" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="34" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="87" priority="31" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="32" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="85" priority="29" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="30" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="83" priority="27" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="28" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="81" priority="25" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="26" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
     <cfRule type="cellIs" dxfId="79" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3285,7 +3655,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A10">
     <cfRule type="cellIs" dxfId="77" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3293,7 +3663,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A10">
     <cfRule type="cellIs" dxfId="75" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3301,7 +3671,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A10">
     <cfRule type="cellIs" dxfId="73" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3309,7 +3679,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A11">
     <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3317,7 +3687,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A11">
     <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3325,7 +3695,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A11">
     <cfRule type="cellIs" dxfId="67" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3333,7 +3703,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A11">
     <cfRule type="cellIs" dxfId="65" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3341,49 +3711,49 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="A12">
+    <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E10" xr:uid="{3B1CCEEA-3289-44C8-9D1D-04599A1B1D40}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E12" xr:uid="{3B1CCEEA-3289-44C8-9D1D-04599A1B1D40}">
       <formula1>"TEST,QA,DEV,PROD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{2C0620C3-AC94-442D-A0A9-232665619B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{2C0620C3-AC94-442D-A0A9-232665619B8E}">
       <formula1>"Chrome-Default,Chrome-Headless,Chrome-MAC-Default,Chrome-MAC-Headless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F10" xr:uid="{5B503B92-99F5-49E9-AAB9-A55EE2349403}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F12" xr:uid="{5B503B92-99F5-49E9-AAB9-A55EE2349403}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A10" xr:uid="{6EA13E7D-46C4-4E6E-8A6E-850237CC6134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A12" xr:uid="{6EA13E7D-46C4-4E6E-8A6E-850237CC6134}">
       <formula1>"Y,N,End"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3399,7 +3769,7 @@
   </sheetPr>
   <dimension ref="A1:GV23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3411,7 +3781,7 @@
     <col min="4" max="4" width="16.7109375" style="34" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13.7109375" style="36" customWidth="1"/>
     <col min="6" max="6" width="12" style="37" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" style="36" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" style="33" customWidth="1"/>
@@ -3504,13 +3874,13 @@
         <v>17</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F4" s="42">
         <v>1</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
@@ -3530,13 +3900,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
@@ -3556,13 +3926,13 @@
         <v>17</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
@@ -3582,13 +3952,13 @@
         <v>17</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F7" s="42">
         <v>1</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="46" t="s">
@@ -3610,13 +3980,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F8" s="42">
         <v>1</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H8" s="46"/>
       <c r="I8" s="46" t="s">
@@ -3783,130 +4153,130 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="31" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="29" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="30" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="59" priority="27" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="57" priority="25" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="25" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4265,98 +4635,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3271114-0F2C-4F75-A343-682ECFD63FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C69735E-F762-479E-9F37-E7BD21FD1BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
   <si>
     <t>Execute</t>
   </si>
@@ -321,15 +321,9 @@
     <t>em_Valid_Circuits.csv</t>
   </si>
   <si>
-    <t>Auto_TP_20210322_170949</t>
-  </si>
-  <si>
     <t>test_psps_ui_eventmanagement_circuit_validation_edit.py</t>
   </si>
   <si>
-    <t>dm_DefaultuploadFile.csv</t>
-  </si>
-  <si>
     <t>WholeHFRA_Polygon_Test_Mar31</t>
   </si>
   <si>
@@ -339,10 +333,19 @@
     <t xml:space="preserve"> mapview validation</t>
   </si>
   <si>
-    <t>PROD</t>
-  </si>
-  <si>
     <t>0408_NormalcircuitV2_Test1</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>dm_DefaultuploadFile_updated.csv</t>
+  </si>
+  <si>
+    <t>Auto_TP_20210504_111141</t>
+  </si>
+  <si>
+    <t>1567_NormalCirTest</t>
   </si>
 </sst>
 </file>
@@ -2582,9 +2585,9 @@
   </sheetPr>
   <dimension ref="A1:GU13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4:E12"/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2869,14 +2872,14 @@
         <v>17</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F4" s="42">
         <v>1</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="46" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="47" t="s">
@@ -2934,7 +2937,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
@@ -3001,7 +3004,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
@@ -3066,7 +3069,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F7" s="42">
         <v>1</v>
@@ -3129,7 +3132,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F8" s="42">
         <v>1</v>
@@ -3192,7 +3195,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F9" s="42">
         <v>1</v>
@@ -3255,13 +3258,13 @@
         <v>17</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F10" s="42">
         <v>1</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>95</v>
@@ -3315,7 +3318,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>91</v>
@@ -3324,7 +3327,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F11" s="42">
         <v>1</v>
@@ -3378,16 +3381,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F12" s="42">
         <v>1</v>
@@ -3769,8 +3772,8 @@
   </sheetPr>
   <dimension ref="A1:GV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3874,13 +3877,13 @@
         <v>17</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="42">
         <v>1</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
@@ -3900,13 +3903,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
@@ -3926,13 +3929,13 @@
         <v>17</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
@@ -3952,13 +3955,13 @@
         <v>17</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="42">
         <v>1</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="46" t="s">
@@ -3980,13 +3983,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="42">
         <v>1</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H8" s="46"/>
       <c r="I8" s="46" t="s">

--- a/PSPSProject/testData/testData.xlsx
+++ b/PSPSProject/testData/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C69735E-F762-479E-9F37-E7BD21FD1BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7094C767-3610-458D-ABC7-5268078F146C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="107">
   <si>
     <t>Execute</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>1567_NormalCirTest</t>
+  </si>
+  <si>
+    <t>test_psps_ui_manage_template_negative.py</t>
+  </si>
+  <si>
+    <t>test_psps_ui_manage_template_positive.py</t>
   </si>
 </sst>
 </file>
@@ -2583,11 +2589,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:GU13"/>
+  <dimension ref="A1:GU15"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3439,23 +3445,149 @@
       <c r="AP12" s="32"/>
       <c r="AQ12" s="32"/>
     </row>
-    <row r="13" spans="1:92" s="2" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="42"/>
+    <row r="13" spans="1:92" s="33" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="42">
+        <v>1</v>
+      </c>
       <c r="G13" s="46"/>
       <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>40</v>
+      </c>
       <c r="L13" s="46"/>
       <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
+      <c r="N13" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="47"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+    </row>
+    <row r="14" spans="1:92" s="33" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="42">
+        <v>1</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="47"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+    </row>
+    <row r="15" spans="1:92" s="2" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
@@ -3714,7 +3846,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
+  <conditionalFormatting sqref="A12:A14">
     <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3722,7 +3854,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
+  <conditionalFormatting sqref="A12:A14">
     <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3730,7 +3862,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
+  <conditionalFormatting sqref="A12:A14">
     <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3738,7 +3870,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
+  <conditionalFormatting sqref="A12:A14">
     <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3747,16 +3879,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E12" xr:uid="{3B1CCEEA-3289-44C8-9D1D-04599A1B1D40}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E14" xr:uid="{3B1CCEEA-3289-44C8-9D1D-04599A1B1D40}">
       <formula1>"TEST,QA,DEV,PROD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{2C0620C3-AC94-442D-A0A9-232665619B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D14" xr:uid="{2C0620C3-AC94-442D-A0A9-232665619B8E}">
       <formula1>"Chrome-Default,Chrome-Headless,Chrome-MAC-Default,Chrome-MAC-Headless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F12" xr:uid="{5B503B92-99F5-49E9-AAB9-A55EE2349403}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F14" xr:uid="{5B503B92-99F5-49E9-AAB9-A55EE2349403}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A12" xr:uid="{6EA13E7D-46C4-4E6E-8A6E-850237CC6134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A14" xr:uid="{6EA13E7D-46C4-4E6E-8A6E-850237CC6134}">
       <formula1>"Y,N,End"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3772,7 +3904,7 @@
   </sheetPr>
   <dimension ref="A1:GV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
